--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail14 Features.xlsx
@@ -6395,7 +6395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6406,29 +6406,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6449,115 +6447,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6574,72 +6562,66 @@
         <v>5.381867003914656e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.6804741511460943</v>
+        <v>2.326730874654764e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.1033258301605398</v>
+        <v>8.624429439457237e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.326730874654764e-06</v>
+        <v>-0.07208259550970211</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>8.624429439457237e-06</v>
+        <v>0.07495473938239521</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.07208259550970211</v>
+        <v>0.01079489236136524</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.07495473938239521</v>
+        <v>1.9063326964107</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01079489236136524</v>
+        <v>2.630107710661384</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.94149947902297</v>
+        <v>4.824834583159125</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.630107710661384</v>
+        <v>7.467323997769286e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.824834583159125</v>
+        <v>668468112.9677191</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>7.467323997769286e-16</v>
+        <v>1.785102458181335e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>668468112.9677191</v>
+        <v>333.6770876293327</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.785102458181335e-07</v>
+        <v>0.0001421098281016305</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>333.6770876293327</v>
+        <v>8.625309628051752</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001421098281016305</v>
+        <v>1.264589809371119</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.625309628051752</v>
+        <v>0.01057239796526073</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.264589809371119</v>
+        <v>3.184939968073605</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01057239796526073</v>
+        <v>0.9594226050569739</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.184939968073605</v>
+        <v>1.179612534101022</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9594226050569739</v>
+        <v>32</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.179612534101022</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.8462008479345984</v>
       </c>
     </row>
@@ -6654,72 +6636,66 @@
         <v>5.171076351914672e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.5896066829516849</v>
+        <v>2.120660547798574e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.009408972156358164</v>
+        <v>8.587585747845006e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.120660547798574e-06</v>
+        <v>-0.06835892698930923</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>8.587585747845006e-06</v>
+        <v>0.06358272518042235</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.06835892698930923</v>
+        <v>0.008711693811254426</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.06358272518042235</v>
+        <v>1.905398080185033</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.008711693811254426</v>
+        <v>2.431724346168324</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.941613785392152</v>
+        <v>4.893467338939041</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.431724346168324</v>
+        <v>9.206970598960468e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.893467338939041</v>
+        <v>530007339.0101191</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.206970598960468e-16</v>
+        <v>2.249190771224334e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>530007339.0101191</v>
+        <v>258.6309665997308</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.249190771224334e-07</v>
+        <v>0.0001594480717090201</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>258.6309665997308</v>
+        <v>8.199803094588015</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001594480717090201</v>
+        <v>1.472400225269622</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.199803094588015</v>
+        <v>0.01072077345040929</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.472400225269622</v>
+        <v>3.117282896635432</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01072077345040929</v>
+        <v>0.9598793563634759</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.117282896635432</v>
+        <v>1.201120974470137</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9598793563634759</v>
+        <v>32</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.201120974470137</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.6521981847156026</v>
       </c>
     </row>
@@ -6734,72 +6710,66 @@
         <v>4.99320768344332e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.5159229563254935</v>
+        <v>2.029576687057695e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.0400159477116131</v>
+        <v>8.553116882600567e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.029576687057695e-06</v>
+        <v>-0.06766188331416487</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8.553116882600567e-06</v>
+        <v>0.06456533785049789</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.06766188331416487</v>
+        <v>0.008746521362598157</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.06456533785049789</v>
+        <v>1.903697107879975</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.008746521362598157</v>
+        <v>2.407227641223098</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.939932409409928</v>
+        <v>5.100978824538334</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.407227641223098</v>
+        <v>1.301578771850973e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.100978824538334</v>
+        <v>376467902.8341008</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.301578771850973e-15</v>
+        <v>3.165097950376252e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>376467902.8341008</v>
+        <v>184.4702627297376</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.165097950376252e-07</v>
+        <v>0.0001860547148137891</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>184.4702627297376</v>
+        <v>9.668185497082685</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001860547148137891</v>
+        <v>1.365842343797448</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.668185497082685</v>
+        <v>0.0173912432120684</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.365842343797448</v>
+        <v>2.900502502167949</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0173912432120684</v>
+        <v>0.9603510494761143</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.900502502167949</v>
+        <v>1.224424842681513</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9603510494761143</v>
+        <v>32</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.224424842681513</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.543495526088713</v>
       </c>
     </row>
@@ -6814,72 +6784,66 @@
         <v>4.811997109061292e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.4306889567094493</v>
+        <v>1.97665059606072e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.1362997244893229</v>
+        <v>8.51986572457133e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.97665059606072e-06</v>
+        <v>-0.06787913437755334</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>8.51986572457133e-06</v>
+        <v>0.06800266456347548</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.06787913437755334</v>
+        <v>0.009231361201791936</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.06800266456347548</v>
+        <v>1.904043083400774</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.009231361201791936</v>
+        <v>2.188568657739224</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.935834076426637</v>
+        <v>4.957073940722553</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.188568657739224</v>
+        <v>2.05770099253289e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.957073940722553</v>
+        <v>244624083.0879816</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.05770099253289e-15</v>
+        <v>4.877266745723614e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>244624083.0879816</v>
+        <v>123.1347658023114</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.877266745723614e-07</v>
+        <v>0.0001960829318985721</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>123.1347658023114</v>
+        <v>11.69988851497052</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001960829318985721</v>
+        <v>1.129558845215036</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.69988851497052</v>
+        <v>0.02684128101874487</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.129558845215036</v>
+        <v>2.712350427385291</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02684128101874487</v>
+        <v>0.9604844188174659</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.712350427385291</v>
+        <v>1.237172892205852</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9604844188174659</v>
+        <v>32</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.237172892205852</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.5411856452691262</v>
       </c>
     </row>
@@ -6894,72 +6858,66 @@
         <v>4.623512737954626e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.331332549007697</v>
+        <v>1.898257477402542e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.299031288802253</v>
+        <v>8.488038984055141e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.898257477402542e-06</v>
+        <v>-0.06670794667570862</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>8.488038984055141e-06</v>
+        <v>0.07171079168720917</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.06670794667570862</v>
+        <v>0.009589811192884783</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.07171079168720917</v>
+        <v>1.904348449974508</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.009589811192884783</v>
+        <v>2.001767537375586</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.933735968396956</v>
+        <v>4.606197569953904</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.001767537375586</v>
+        <v>3.363899579947554e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.606197569953904</v>
+        <v>152795380.571425</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.363899579947554e-15</v>
+        <v>7.814515517935878e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>152795380.571425</v>
+        <v>78.53504043226685</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>7.814515517935878e-07</v>
+        <v>0.0001868201861091542</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>78.53504043226685</v>
+        <v>12.61435956596736</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001868201861091542</v>
+        <v>1.018049575993826</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>12.61435956596736</v>
+        <v>0.02972721421949545</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.018049575993826</v>
+        <v>2.659404156249345</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02972721421949545</v>
+        <v>0.9607203406955332</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.659404156249345</v>
+        <v>1.245701899645325</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9607203406955332</v>
+        <v>32</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.245701899645325</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.5699088555984131</v>
       </c>
     </row>
@@ -6974,72 +6932,66 @@
         <v>4.436896713852631e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2322434290700893</v>
+        <v>1.800333151965031e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.4969898178342822</v>
+        <v>8.458398841614572e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.800333151965031e-06</v>
+        <v>-0.06394674661762909</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>8.458398841614572e-06</v>
+        <v>0.07571165998173149</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.06394674661762909</v>
+        <v>0.009817655077904313</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.07571165998173149</v>
+        <v>1.912851148374136</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.009817655077904313</v>
+        <v>2.017533442656101</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.934861115084673</v>
+        <v>3.98118862272563</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.017533442656101</v>
+        <v>4.50300716306719e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.98118862272563</v>
+        <v>118531096.5307758</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.50300716306719e-15</v>
+        <v>1.013203654475433e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>118531096.5307758</v>
+        <v>63.26554330245892</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.013203654475433e-06</v>
+        <v>0.0001791531900581681</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>63.26554330245892</v>
+        <v>12.04339145808346</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001791531900581681</v>
+        <v>1.04433185562323</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>12.04339145808346</v>
+        <v>0.02598496591662714</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.04433185562323</v>
+        <v>2.711993309262431</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02598496591662714</v>
+        <v>0.9598377210634907</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.711993309262431</v>
+        <v>1.25871708578777</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9598377210634907</v>
+        <v>32</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.25871708578777</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.5220146340217173</v>
       </c>
     </row>
@@ -7054,72 +7006,66 @@
         <v>4.253761186124554e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1397326288705393</v>
+        <v>1.704196535522883e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.7115856076897291</v>
+        <v>8.431371044197757e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.704196535522883e-06</v>
+        <v>-0.06026788009031653</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>8.431371044197757e-06</v>
+        <v>0.08142740250043162</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.06026788009031653</v>
+        <v>0.01025767288243539</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.08142740250043162</v>
+        <v>1.909041269031949</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01025767288243539</v>
+        <v>2.060897000390719</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.931770502179689</v>
+        <v>3.706796294089517</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.060897000390719</v>
+        <v>5.194343979580373e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.706796294089517</v>
+        <v>103311969.7984751</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>5.194343979580373e-15</v>
+        <v>1.163384194628331e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>103311969.7984751</v>
+        <v>55.4411193792731</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.163384194628331e-06</v>
+        <v>0.0001885176787908984</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>55.4411193792731</v>
+        <v>11.47214959977328</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001885176787908984</v>
+        <v>1.110608033656546</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.47214959977328</v>
+        <v>0.02481085250835703</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.110608033656546</v>
+        <v>2.664812797242305</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02481085250835703</v>
+        <v>0.9602979402214016</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.664812797242305</v>
+        <v>1.260259954077994</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9602979402214016</v>
+        <v>32</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.260259954077994</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.4362685478153746</v>
       </c>
     </row>
@@ -7134,72 +7080,66 @@
         <v>4.074536823038422e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.05457090312351972</v>
+        <v>1.602248367274922e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.9300193774714054</v>
+        <v>8.407242007910523e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.602248367274922e-06</v>
+        <v>-0.05536805216548669</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>8.407242007910523e-06</v>
+        <v>0.08810976859804978</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05536805216548669</v>
+        <v>0.01082197078343371</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.08810976859804978</v>
+        <v>1.83378958817349</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01082197078343371</v>
+        <v>1.870884564969818</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.826533220206513</v>
+        <v>5.440948403393123</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.870884564969818</v>
+        <v>6.323111128522138e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.440948403393123</v>
+        <v>86703523.66907215</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>6.323111128522138e-15</v>
+        <v>1.352782944438885e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>86703523.66907215</v>
+        <v>47.53399433695085</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.352782944438885e-06</v>
+        <v>0.0002065792289401909</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>47.53399433695085</v>
+        <v>11.05449141043893</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0002065792289401909</v>
+        <v>1.204610259780342</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>11.05449141043893</v>
+        <v>0.02524434955847221</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.204610259780342</v>
+        <v>2.596609594128324</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.02524434955847221</v>
+        <v>0.9557066816760289</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.596609594128324</v>
+        <v>1.426002133223654</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9557066816760289</v>
+        <v>33</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.426002133223654</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.3769744504630064</v>
       </c>
     </row>
@@ -7214,72 +7154,66 @@
         <v>3.908155547911431e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.01605544456896275</v>
+        <v>1.486407965426522e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.119193928151687</v>
+        <v>8.38622348424789e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.486407965426522e-06</v>
+        <v>-0.05007552409404609</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>8.38622348424789e-06</v>
+        <v>0.09086042930677289</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05007552409404609</v>
+        <v>0.01075683274927424</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.09086042930677289</v>
+        <v>1.796031739416317</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01075683274927424</v>
+        <v>1.584858124199681</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.760334374592147</v>
+        <v>4.849303450089805</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.584858124199681</v>
+        <v>2.099326305873635e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.849303450089805</v>
+        <v>26715996.07534588</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.099326305873635e-14</v>
+        <v>4.361507749922164e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>26715996.07534588</v>
+        <v>14.98382491784386</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.361507749922164e-06</v>
+        <v>0.0002967179432255197</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>14.98382491784386</v>
+        <v>9.8373061837022</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0002967179432255197</v>
+        <v>1.772714893569857</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.8373061837022</v>
+        <v>0.02871416474128984</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.772714893569857</v>
+        <v>2.434681870142237</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.02871416474128984</v>
+        <v>0.9552224212786249</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.434681870142237</v>
+        <v>1.747619127217563</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9552224212786249</v>
+        <v>33</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.747619127217563</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2180657280351891</v>
       </c>
     </row>
@@ -7294,72 +7228,66 @@
         <v>3.764944325109613e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.06346957399356727</v>
+        <v>1.373980455248213e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.257469745423157</v>
+        <v>8.367840936364954e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.373980455248213e-06</v>
+        <v>-0.04606122738284266</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>8.367840936364954e-06</v>
+        <v>0.08973659140374526</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04606122738284266</v>
+        <v>0.01016958248743091</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.08973659140374526</v>
+        <v>1.772507779123223</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01016958248743091</v>
+        <v>1.593490143242236</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.722876636999427</v>
+        <v>3.937064105556717</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.593490143242236</v>
+        <v>3.184884578828667e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.937064105556717</v>
+        <v>17755052.0004198</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.184884578828667e-14</v>
+        <v>6.517094286944309e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>17755052.0004198</v>
+        <v>10.04008975261225</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.517094286944309e-06</v>
+        <v>0.0002418435060910472</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>10.04008975261225</v>
+        <v>10.45749051254536</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0002418435060910472</v>
+        <v>1.532980473650216</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.45749051254536</v>
+        <v>0.0264477900581719</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.532980473650216</v>
+        <v>2.640569622661625</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0264477900581719</v>
+        <v>0.9540336851920209</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.640569622661625</v>
+        <v>1.714829802627783</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9540336851920209</v>
+        <v>33</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.714829802627783</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1666647240231</v>
       </c>
     </row>
@@ -7374,72 +7302,66 @@
         <v>3.645292026338559e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.08729808349279182</v>
+        <v>1.280238714165761e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.352468567126051</v>
+        <v>8.351309899322523e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.280238714165761e-06</v>
+        <v>-0.04338569474192233</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>8.351309899322523e-06</v>
+        <v>0.08868528708631754</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04338569474192233</v>
+        <v>0.009744076509198849</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.08868528708631754</v>
+        <v>1.749535919262813</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.009744076509198849</v>
+        <v>1.622054448810193</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.690032320736726</v>
+        <v>3.856307631237819</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.622054448810193</v>
+        <v>3.319673158424102e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.856307631237819</v>
+        <v>16516031.67121855</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.319673158424102e-14</v>
+        <v>6.883295916168885e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>16516031.67121855</v>
+        <v>9.055381275697929</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>6.883295916168885e-06</v>
+        <v>0.0001653246441136358</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>9.055381275697929</v>
+        <v>11.15228138960134</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001653246441136358</v>
+        <v>1.136134939331267</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.15228138960134</v>
+        <v>0.02056198481759258</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.136134939331267</v>
+        <v>2.792494143616349</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02056198481759258</v>
+        <v>0.9516622932407103</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.792494143616349</v>
+        <v>1.76696739116119</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9516622932407103</v>
+        <v>16</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.76696739116119</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.175403037934727</v>
       </c>
     </row>
@@ -7454,72 +7376,66 @@
         <v>3.544821813764082e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.09161849268406459</v>
+        <v>1.198333303240948e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.416349608264691</v>
+        <v>8.336132623507507e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.198333303240948e-06</v>
+        <v>-0.0410419672799171</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>8.336132623507507e-06</v>
+        <v>0.08796454817319554</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.0410419672799171</v>
+        <v>0.009419075097522578</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.08796454817319554</v>
+        <v>1.733304846479016</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.009419075097522578</v>
+        <v>1.636318841605787</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.668374439178764</v>
+        <v>3.85608982161105</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.636318841605787</v>
+        <v>3.320048189725686e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.85608982161105</v>
+        <v>16361848.78167261</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.320048189725686e-14</v>
+        <v>6.929094351339025e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>16361848.78167261</v>
+        <v>8.888104181164151</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>6.929094351339025e-06</v>
+        <v>0.0001485796405552081</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>8.888104181164151</v>
+        <v>10.5193735996056</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001485796405552081</v>
+        <v>1.139361481450856</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.5193735996056</v>
+        <v>0.01644141011033228</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.139361481450856</v>
+        <v>2.709542802771142</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01644141011033228</v>
+        <v>0.9523977921122933</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.709542802771142</v>
+        <v>1.779156047691684</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9523977921122933</v>
+        <v>19</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.779156047691684</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1833856908021556</v>
       </c>
     </row>
@@ -7534,72 +7450,66 @@
         <v>3.461071289662668e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.07834332222588002</v>
+        <v>1.120313603598445e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.450898432405702</v>
+        <v>8.322255452337546e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.120313603598445e-06</v>
+        <v>-0.03809931736089231</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>8.322255452337546e-06</v>
+        <v>0.08711435977546851</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.03809931736089231</v>
+        <v>0.009037593067992096</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.08711435977546851</v>
+        <v>1.728705366739336</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.009037593067992096</v>
+        <v>1.612186733520535</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.65930218183666</v>
+        <v>3.790600901205345</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.612186733520535</v>
+        <v>3.435757850558522e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.790600901205345</v>
+        <v>15988069.79027467</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.435757850558522e-14</v>
+        <v>7.11699640377447e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>15988069.79027467</v>
+        <v>8.782428407789439</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>7.11699640377447e-06</v>
+        <v>0.0001423385217496918</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>8.782428407789439</v>
+        <v>8.965299547551917</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001423385217496918</v>
+        <v>1.228773662812035</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.965299547551917</v>
+        <v>0.01144068585468603</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.228773662812035</v>
+        <v>2.874546775980414</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01144068585468603</v>
+        <v>0.9523680960909845</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.874546775980414</v>
+        <v>1.766411287853033</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9523680960909845</v>
+        <v>16</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.766411287853033</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1784671621194725</v>
       </c>
     </row>
@@ -7614,72 +7524,66 @@
         <v>3.390558095407132e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.05170054543327199</v>
+        <v>1.053068134840946e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.457932655798599</v>
+        <v>8.30981506805788e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.053068134840946e-06</v>
+        <v>-0.03442101646889204</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>8.30981506805788e-06</v>
+        <v>0.08754740885096918</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.03442101646889204</v>
+        <v>0.00884679140923484</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.08754740885096918</v>
+        <v>1.723556463575757</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.00884679140923484</v>
+        <v>1.593772242220746</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.649085073399256</v>
+        <v>4.043484219520059</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.593772242220746</v>
+        <v>3.755105636462268e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.043484219520059</v>
+        <v>14582919.29373558</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.755105636462268e-14</v>
+        <v>7.80481605839121e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>14582919.29373558</v>
+        <v>7.9856652921639</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>7.80481605839121e-06</v>
+        <v>0.0001532822905876792</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>7.9856652921639</v>
+        <v>7.926079277835418</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001532822905876792</v>
+        <v>1.473700452311817</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.926079277835418</v>
+        <v>0.009629612372074128</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.473700452311817</v>
+        <v>2.940951673668469</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.009629612372074128</v>
+        <v>0.9523732410344385</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.940951673668469</v>
+        <v>1.785901541447305</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9523732410344385</v>
+        <v>4</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.785901541447305</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1620916405816397</v>
       </c>
     </row>
@@ -7694,72 +7598,66 @@
         <v>3.327597355866765e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.01995668836788337</v>
+        <v>1.004776357388183e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.442383819508912</v>
+        <v>8.298967034579855e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.004776357388183e-06</v>
+        <v>-0.03007413440339856</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>8.298967034579855e-06</v>
+        <v>0.09128068913387191</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.03007413440339856</v>
+        <v>0.009233633583176465</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.09128068913387191</v>
+        <v>1.699884767461428</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.009233633583176465</v>
+        <v>1.585342140739149</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.621007738488509</v>
+        <v>4.079007676050983</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.585342140739149</v>
+        <v>4.100955247486803e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.079007676050983</v>
+        <v>13638223.86572742</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.100955247486803e-14</v>
+        <v>8.26961193290205e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>13638223.86572742</v>
+        <v>7.627823929992392</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>8.26961193290205e-06</v>
+        <v>0.0001755041792165947</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>7.627823929992392</v>
+        <v>8.984863693674688</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001755041792165947</v>
+        <v>1.440336775156034</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.984863693674688</v>
+        <v>0.01416806199559125</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.440336775156034</v>
+        <v>2.81899974906342</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01416806199559125</v>
+        <v>0.9520625012673961</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.81899974906342</v>
+        <v>1.789554033888116</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9520625012673961</v>
+        <v>4</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.789554033888116</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.148020310648662</v>
       </c>
     </row>
@@ -7774,72 +7672,66 @@
         <v>3.267207816524069e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.007943438809379791</v>
+        <v>9.969169497837707e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.411131816347382</v>
+        <v>8.289722666026128e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>9.969169497837707e-07</v>
+        <v>-0.02615703129406654</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>8.289722666026128e-06</v>
+        <v>0.09655799412285188</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.02615703129406654</v>
+        <v>0.01000576769097686</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.09655799412285188</v>
+        <v>1.67811279947374</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01000576769097686</v>
+        <v>1.587001360315722</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.587689903841178</v>
+        <v>3.966196750899917</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.587001360315722</v>
+        <v>4.337560709409555e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.966196750899917</v>
+        <v>13893739.18556263</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>4.337560709409555e-14</v>
+        <v>8.156912939378732e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>13893739.18556263</v>
+        <v>8.373053194644402</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>8.156912939378732e-06</v>
+        <v>0.0001802906799230193</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>8.373053194644402</v>
+        <v>11.48243060960059</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001802906799230193</v>
+        <v>1.115299309736737</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.48243060960059</v>
+        <v>0.02377064333373192</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.115299309736737</v>
+        <v>2.582218317644137</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02377064333373192</v>
+        <v>0.9508384368426572</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.582218317644137</v>
+        <v>1.801512676841958</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9508384368426572</v>
+        <v>5</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.801512676841958</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1538104171825523</v>
       </c>
     </row>
@@ -7854,72 +7746,66 @@
         <v>3.208792706011146e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.02963360227190002</v>
+        <v>9.969169497837707e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.371460130795105</v>
+        <v>8.281752318187803e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>9.969169497837707e-07</v>
+        <v>-0.0231450625992335</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>8.281752318187803e-06</v>
+        <v>0.1002879990505423</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.0231450625992335</v>
+        <v>0.01059216137629101</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1002879990505423</v>
+        <v>1.670507511902275</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01059216137629101</v>
+        <v>1.579105140832399</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.574577654858589</v>
+        <v>3.889295996240822</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.579105140832399</v>
+        <v>4.510784527554898e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.889295996240822</v>
+        <v>13529621.17330709</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>4.510784527554898e-14</v>
+        <v>8.369648436205808e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>13529621.17330709</v>
+        <v>8.257020356884849</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>8.369648436205808e-06</v>
+        <v>0.0001695497395124315</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>8.257020356884849</v>
+        <v>11.26652835866648</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001695497395124315</v>
+        <v>1.125227169684094</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>11.26652835866648</v>
+        <v>0.02152173875116138</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.125227169684094</v>
+        <v>2.618372385953914</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.02152173875116138</v>
+        <v>0.9499826231215327</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.618372385953914</v>
+        <v>1.777842941717002</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9499826231215327</v>
+        <v>5</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.777842941717002</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1597503563660687</v>
       </c>
     </row>
@@ -7934,72 +7820,66 @@
         <v>3.153236833335685e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.04601932759295817</v>
+        <v>9.969169497837707e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.327520609480846</v>
+        <v>8.274786341277046e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>9.969169497837707e-07</v>
+        <v>-0.02086459987905789</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>8.274786341277046e-06</v>
+        <v>0.1033669710851573</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.02086459987905789</v>
+        <v>0.01111964790473344</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1033669710851573</v>
+        <v>1.65161668283151</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01111964790473344</v>
+        <v>1.567108444236629</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.555911692889765</v>
+        <v>3.826396141318622</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.567108444236629</v>
+        <v>4.660303655927644e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.826396141318622</v>
+        <v>13296950.64215799</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.660303655927644e-14</v>
+        <v>8.469344958902787e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>13296950.64215799</v>
+        <v>8.239831462001799</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>8.469344958902787e-06</v>
+        <v>0.0001540409672489698</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>8.239831462001799</v>
+        <v>8.955366466870682</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001540409672489698</v>
+        <v>1.309210116780168</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.955366466870682</v>
+        <v>0.01235386815316099</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.309210116780168</v>
+        <v>2.897125826956468</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01235386815316099</v>
+        <v>0.9503085190830168</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.897125826956468</v>
+        <v>1.805343268644544</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9503085190830168</v>
+        <v>5</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.805343268644544</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1591578189990275</v>
       </c>
     </row>
@@ -8014,72 +7894,66 @@
         <v>3.097809811284777e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.05680652389511708</v>
+        <v>9.969169497837707e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.282763331388481</v>
+        <v>8.268352248993867e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>9.969169497837707e-07</v>
+        <v>-0.02072055404315947</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>8.268352248993867e-06</v>
+        <v>0.1054466729391376</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.02072055404315947</v>
+        <v>0.01154814374776023</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1054466729391376</v>
+        <v>1.642391241213242</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01154814374776023</v>
+        <v>1.54651664737723</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.544632868777621</v>
+        <v>3.762361432345704</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.54651664737723</v>
+        <v>4.820288671182564e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.762361432345704</v>
+        <v>12682562.30706016</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>4.820288671182564e-14</v>
+        <v>8.827485325170443e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>12682562.30706016</v>
+        <v>7.753308357665956</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>8.827485325170443e-06</v>
+        <v>0.0001484039902132828</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>7.753308357665956</v>
+        <v>8.04730595674538</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001484039902132828</v>
+        <v>1.441501508575548</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.04730595674538</v>
+        <v>0.009610513763915422</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.441501508575548</v>
+        <v>2.990136871537772</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.009610513763915422</v>
+        <v>0.9491520458344963</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.990136871537772</v>
+        <v>1.823951898472394</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9491520458344963</v>
+        <v>5</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.823951898472394</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1631027173646567</v>
       </c>
     </row>
@@ -8094,72 +7968,66 @@
         <v>3.035606603327045e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.05882592512920876</v>
+        <v>9.969169497837707e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.242566548865297</v>
+        <v>8.261730332655999e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>9.969169497837707e-07</v>
+        <v>-0.02261225352113825</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>8.261730332655999e-06</v>
+        <v>0.1065590762480908</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.02261225352113825</v>
+        <v>0.01186537509650675</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1065590762480908</v>
+        <v>1.618122213189235</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01186537509650675</v>
+        <v>1.529185940782701</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.514723430615599</v>
+        <v>3.8623859391072</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.529185940782701</v>
+        <v>4.573858663776659e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.8623859391072</v>
+        <v>13347018.70430268</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>4.573858663776659e-14</v>
+        <v>8.316511925377341e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>13347018.70430268</v>
+        <v>8.148004844863344</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>8.316511925377341e-06</v>
+        <v>0.0001460320823379912</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>8.148004844863344</v>
+        <v>8.986692460892179</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001460320823379912</v>
+        <v>1.303078137737505</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.986692460892179</v>
+        <v>0.01179364463264518</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.303078137737505</v>
+        <v>2.966400727667898</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01179364463264518</v>
+        <v>0.9472461192687389</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.966400727667898</v>
+        <v>1.809902061185698</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9472461192687389</v>
+        <v>6</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.809902061185698</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.169748312927309</v>
       </c>
     </row>
@@ -8174,72 +8042,66 @@
         <v>2.962232426855826e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.04454666291863494</v>
+        <v>9.969169497837707e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.219877586324479</v>
+        <v>8.254708758872192e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>9.969169497837707e-07</v>
+        <v>-0.02382257068630359</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>8.254708758872192e-06</v>
+        <v>0.1086545664760547</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.02382257068630359</v>
+        <v>0.01237297430576082</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1086545664760547</v>
+        <v>1.605900265731981</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01237297430576082</v>
+        <v>1.543139391792014</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.500054079130776</v>
+        <v>3.889261542108712</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.543139391792014</v>
+        <v>4.510864448050213e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.889261542108712</v>
+        <v>13253447.8438261</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>4.510864448050213e-14</v>
+        <v>8.269523612997519e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>13253447.8438261</v>
+        <v>7.92350841321936</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>8.269523612997519e-06</v>
+        <v>0.0001592185809800039</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>7.92350841321936</v>
+        <v>11.44686218468382</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001592185809800039</v>
+        <v>1.152218630799226</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>11.44686218468382</v>
+        <v>0.02086251477488256</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.152218630799226</v>
+        <v>2.764577989137036</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02086251477488256</v>
+        <v>0.9478286740141183</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.764577989137036</v>
+        <v>1.842123553139712</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9478286740141183</v>
+        <v>6</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.842123553139712</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1756070694406887</v>
       </c>
     </row>
@@ -8254,72 +8116,66 @@
         <v>2.883541293345222e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.01282117932377595</v>
+        <v>9.895056662291432e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.220825552966052</v>
+        <v>8.247855952587479e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>9.895056662291432e-07</v>
+        <v>-0.02266024787982465</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>8.247855952587479e-06</v>
+        <v>0.1124968151588625</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.02266024787982465</v>
+        <v>0.01316806266452122</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1124968151588625</v>
+        <v>1.598786573605005</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01316806266452122</v>
+        <v>1.527892700721778</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.491203442679529</v>
+        <v>3.975684875435498</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.527892700721778</v>
+        <v>4.316881904067251e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.975684875435498</v>
+        <v>13847702.69712362</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>4.316881904067251e-14</v>
+        <v>7.933667995999224e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>13847702.69712362</v>
+        <v>8.278003957952576</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>7.933667995999224e-06</v>
+        <v>0.0001806202368624062</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>8.278003957952576</v>
+        <v>11.56650957102082</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001806202368624062</v>
+        <v>1.1959860287976</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>11.56650957102082</v>
+        <v>0.02416412371567415</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.1959860287976</v>
+        <v>2.71576285632506</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.02416412371567415</v>
+        <v>0.9480856543109909</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.71576285632506</v>
+        <v>1.840453844813115</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9480856543109909</v>
+        <v>6</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.840453844813115</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1626196899605739</v>
       </c>
     </row>
@@ -8334,72 +8190,66 @@
         <v>2.809960381724676e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.02756925201985511</v>
+        <v>9.594602303055517e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.234356548428118</v>
+        <v>8.241831550078186e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>9.594602303055517e-07</v>
+        <v>-0.01931191672255245</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>8.241831550078186e-06</v>
+        <v>0.1165626576514401</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.01931191672255245</v>
+        <v>0.01395712707997757</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1165626576514401</v>
+        <v>1.65006655453783</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01395712707997757</v>
+        <v>1.595184740465433</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.542179812354565</v>
+        <v>3.92925603932264</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.595184740465433</v>
+        <v>4.419502831249013e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.92925603932264</v>
+        <v>13561484.13448704</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>4.419502831249013e-14</v>
+        <v>8.304401536630061e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>13561484.13448704</v>
+        <v>8.128077893102985</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>8.304401536630061e-06</v>
+        <v>0.0001793121840201365</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>8.128077893102985</v>
+        <v>9.433767435630095</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001793121840201365</v>
+        <v>1.49884770949019</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.433767435630095</v>
+        <v>0.01595806139636572</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.49884770949019</v>
+        <v>2.921658132638507</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01595806139636572</v>
+        <v>0.9507441192707518</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.921658132638507</v>
+        <v>1.772384001121689</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9507441192707518</v>
+        <v>5</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.772384001121689</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.154570428387588</v>
       </c>
     </row>
@@ -8414,72 +8264,66 @@
         <v>2.749091763292254e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.06903263115032049</v>
+        <v>9.251767810887881e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.252646011178142</v>
+        <v>8.237110680697522e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>9.251767810887881e-07</v>
+        <v>-0.01458030965149125</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>8.237110680697522e-06</v>
+        <v>0.1211738181681685</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.01458030965149125</v>
+        <v>0.0148926941405562</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1211738181681685</v>
+        <v>1.624923641760927</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.0148926941405562</v>
+        <v>1.469793897358843</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.519983734605849</v>
+        <v>4.405698555423835</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.469793897358843</v>
+        <v>3.462160871750631e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.405698555423835</v>
+        <v>17198034.1070021</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.462160871750631e-14</v>
+        <v>6.477785933106298e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>17198034.1070021</v>
+        <v>10.24011551098193</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>6.477785933106298e-06</v>
+        <v>0.0001407561150093369</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>10.24011551098193</v>
+        <v>8.523149616042526</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001407561150093369</v>
+        <v>1.425848006308391</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>8.523149616042526</v>
+        <v>0.01022509839159917</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.425848006308391</v>
+        <v>3.094475454506763</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01022509839159917</v>
+        <v>0.9500649225416259</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.094475454506763</v>
+        <v>1.77972103613566</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9500649225416259</v>
+        <v>8</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.77972103613566</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.178369865034359</v>
       </c>
     </row>
@@ -8494,72 +8338,66 @@
         <v>2.702929655880815e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.1066102867160093</v>
+        <v>8.93882648201896e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.273422583029385</v>
+        <v>8.233702474427763e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>8.93882648201896e-07</v>
+        <v>-0.01074746283269802</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>8.233702474427763e-06</v>
+        <v>0.1239659860570652</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.01074746283269802</v>
+        <v>0.01548202929925283</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1239659860570652</v>
+        <v>1.62774176824327</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01548202929925283</v>
+        <v>1.577650879689513</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.523673614432344</v>
+        <v>4.039985256707269</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.577650879689513</v>
+        <v>3.21978482188246e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.039985256707269</v>
+        <v>18679964.14235441</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.21978482188246e-14</v>
+        <v>5.957877833588018e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>18679964.14235441</v>
+        <v>11.23515129877561</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>5.957877833588018e-06</v>
+        <v>0.0001244647855396874</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>11.23515129877561</v>
+        <v>9.405412181847371</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001244647855396874</v>
+        <v>1.258778742579088</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.405412181847371</v>
+        <v>0.01101037626586865</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.258778742579088</v>
+        <v>3.082569225072299</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01101037626586865</v>
+        <v>0.9527795124947027</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.082569225072299</v>
+        <v>1.823465395242243</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9527795124947027</v>
+        <v>8</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.823465395242243</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2037212770898809</v>
       </c>
     </row>
@@ -8574,72 +8412,66 @@
         <v>2.667089530867519e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.1378002896798829</v>
+        <v>8.679905859309028e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.290884147901267</v>
+        <v>8.231082017866234e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>8.679905859309028e-07</v>
+        <v>-0.009130042756744679</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>8.231082017866234e-06</v>
+        <v>0.1252002160420801</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.009130042756744679</v>
+        <v>0.01575798541939586</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1252002160420801</v>
+        <v>1.625678665120011</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01575798541939586</v>
+        <v>1.746654015058162</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.522995275369139</v>
+        <v>3.813544340578221</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.746654015058162</v>
+        <v>3.613506235867198e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.813544340578221</v>
+        <v>16814985.23840464</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3.613506235867198e-14</v>
+        <v>6.6420607684065e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>16814985.23840464</v>
+        <v>10.21696226331965</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>6.6420607684065e-06</v>
+        <v>0.0001375278900757131</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>10.21696226331965</v>
+        <v>10.20303606449826</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001375278900757131</v>
+        <v>1.344981055582103</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.20303606449826</v>
+        <v>0.01431692083947574</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.344981055582103</v>
+        <v>3.103730173998341</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01431692083947574</v>
+        <v>0.9529722636616483</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.103730173998341</v>
+        <v>1.802419370528815</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9529722636616483</v>
+        <v>8</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.802419370528815</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1957739248039923</v>
       </c>
     </row>
@@ -8654,72 +8486,66 @@
         <v>2.635172088690319e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.1655058299962701</v>
+        <v>8.530990250212068e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.304621486421879</v>
+        <v>8.2287056544395e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>8.530990250212068e-07</v>
+        <v>-0.008925163297332665</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>8.2287056544395e-06</v>
+        <v>0.1266087377631287</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.008925163297332665</v>
+        <v>0.01610933465086419</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1266087377631287</v>
+        <v>1.611160599835104</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01610933465086419</v>
+        <v>1.644171307728866</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.50685107370732</v>
+        <v>3.802690006342581</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.644171307728866</v>
+        <v>3.63416433946264e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.802690006342581</v>
+        <v>16854977.39329505</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>3.63416433946264e-14</v>
+        <v>6.591615583592029e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>16854977.39329505</v>
+        <v>10.32430702723274</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>6.591615583592029e-06</v>
+        <v>0.0001436625910916229</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>10.32430702723274</v>
+        <v>10.24019837917195</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001436625910916229</v>
+        <v>1.396476344694759</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>10.24019837917195</v>
+        <v>0.01506469819045954</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.396476344694759</v>
+        <v>3.07460367822489</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01506469819045954</v>
+        <v>0.9511304883567431</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.07460367822489</v>
+        <v>1.807797665253294</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9511304883567431</v>
+        <v>6</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.807797665253294</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1920789193778263</v>
       </c>
     </row>
@@ -8734,72 +8560,66 @@
         <v>2.604233838679e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.1934803607119029</v>
+        <v>8.469561714082454e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.319242473683572</v>
+        <v>8.226395693882876e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>8.469561714082454e-07</v>
+        <v>-0.00846114336855394</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>8.226395693882876e-06</v>
+        <v>0.1281615082390118</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.00846114336855394</v>
+        <v>0.01649668767772876</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1281615082390118</v>
+        <v>1.601981608569132</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01649668767772876</v>
+        <v>1.574998344821301</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.497091558716904</v>
+        <v>3.709875684221347</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.574998344821301</v>
+        <v>3.818279320844077e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.709875684221347</v>
+        <v>15910384.44242098</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3.818279320844077e-14</v>
+        <v>6.945155892050786e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>15910384.44242098</v>
+        <v>9.66560499168814</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>6.945155892050786e-06</v>
+        <v>0.0001243707634866808</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>9.66560499168814</v>
+        <v>8.706587590802471</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001243707634866808</v>
+        <v>1.409433971822685</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.706587590802471</v>
+        <v>0.00942788436988333</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.409433971822685</v>
+        <v>3.139613827250325</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.00942788436988333</v>
+        <v>0.9487360629568655</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.139613827250325</v>
+        <v>1.826879512962539</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9487360629568655</v>
+        <v>6</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.826879512962539</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1969165638995862</v>
       </c>
     </row>
@@ -8814,72 +8634,66 @@
         <v>2.578054077183197e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.2195702708688272</v>
+        <v>8.322829008806592e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.335756707961872</v>
+        <v>8.224485650461145e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>8.322829008806592e-07</v>
+        <v>-0.005998572471047931</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>8.224485650461145e-06</v>
+        <v>0.1299997162839013</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.005998572471047931</v>
+        <v>0.01693478303416694</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1299997162839013</v>
+        <v>1.574379104208067</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01693478303416694</v>
+        <v>1.536027776587201</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.471866954806463</v>
+        <v>3.817879841150996</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.536027776587201</v>
+        <v>3.60530405883681e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.817879841150996</v>
+        <v>17231823.50942117</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>3.60530405883681e-14</v>
+        <v>6.349040147057218e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>17231823.50942117</v>
+        <v>10.70543633898879</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>6.349040147057218e-06</v>
+        <v>0.0001266065196566404</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>10.70543633898879</v>
+        <v>7.983375448838991</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001266065196566404</v>
+        <v>1.262892540364801</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>7.983375448838991</v>
+        <v>0.008069175823977058</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.262892540364801</v>
+        <v>2.993743670121954</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.008069175823977058</v>
+        <v>0.9461141719836965</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.993743670121954</v>
+        <v>1.809575022130847</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9461141719836965</v>
+        <v>7</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.809575022130847</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1951149114043338</v>
       </c>
     </row>
@@ -8894,72 +8708,66 @@
         <v>2.561554359268963e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.2373292436612843</v>
+        <v>8.104787064157133e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.348365233981287</v>
+        <v>8.223308634833669e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>8.104787064157133e-07</v>
+        <v>-0.003251748996990168</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>8.223308634833669e-06</v>
+        <v>0.1309189759433712</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.003251748996990168</v>
+        <v>0.01714953105144353</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1309189759433712</v>
+        <v>1.588282767273686</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01714953105144353</v>
+        <v>1.658683455723286</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.487347823737939</v>
+        <v>3.818420148780441</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.658683455723286</v>
+        <v>3.124746936851816e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.818420148780441</v>
+        <v>19721304.33609699</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>3.124746936851816e-14</v>
+        <v>5.558632747863773e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>19721304.33609699</v>
+        <v>12.15307340929567</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>5.558632747863773e-06</v>
+        <v>0.0001359162515340809</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>12.15307340929567</v>
+        <v>8.109980517713614</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001359162515340809</v>
+        <v>1.31094779330472</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.109980517713614</v>
+        <v>0.008939454337675864</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.31094779330472</v>
+        <v>2.901630691325518</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.008939454337675864</v>
+        <v>0.9467427476947045</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.901630691325518</v>
+        <v>1.824067709919478</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9467427476947045</v>
+        <v>7</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.824067709919478</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1905314476531488</v>
       </c>
     </row>
@@ -8974,72 +8782,66 @@
         <v>2.554685958784818e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.2447794435473952</v>
+        <v>7.823510926096515e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.353550747135527</v>
+        <v>8.222818163126875e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>7.823510926096515e-07</v>
+        <v>-0.0004958130680288459</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>8.222818163126875e-06</v>
+        <v>0.1307375510852344</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.0004958130680288459</v>
+        <v>0.01709139375567319</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1307375510852344</v>
+        <v>1.58507565417422</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01709139375567319</v>
+        <v>1.629580625989062</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.485182055710054</v>
+        <v>3.868133285243633</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.629580625989062</v>
+        <v>3.044944747690508e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.868133285243633</v>
+        <v>19249994.96628834</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.044944747690508e-14</v>
+        <v>5.651824861802873e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>19249994.96628834</v>
+        <v>11.28341747962246</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>5.651824861802873e-06</v>
+        <v>0.000137893806788545</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>11.28341747962246</v>
+        <v>8.019493304209597</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.000137893806788545</v>
+        <v>1.362752735698251</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.019493304209597</v>
+        <v>0.008868264127373657</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.362752735698251</v>
+        <v>2.954522369607513</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.008868264127373657</v>
+        <v>0.9470338243048005</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.954522369607513</v>
+        <v>1.827959708415009</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9470338243048005</v>
+        <v>7</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.827959708415009</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1854303579369758</v>
       </c>
     </row>
@@ -9054,72 +8856,66 @@
         <v>2.557647247130921e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.2417711740853837</v>
+        <v>7.842824868386605e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.351798097003069</v>
+        <v>8.223037421377409e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>7.842824868386605e-07</v>
+        <v>0.001898565974985474</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>8.223037421377409e-06</v>
+        <v>0.1299460924141456</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.001898565974985474</v>
+        <v>0.01688907209847859</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1299460924141456</v>
+        <v>1.566451221101431</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.01688907209847859</v>
+        <v>1.771919947791167</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.46442833317736</v>
+        <v>3.751428263321034</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.771919947791167</v>
+        <v>3.237345005841039e-14</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.751428263321034</v>
+        <v>18446603.83231778</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>3.237345005841039e-14</v>
+        <v>5.850796492566851e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>18446603.83231778</v>
+        <v>11.01594671186898</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>5.850796492566851e-06</v>
+        <v>0.0001302101779199357</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>11.01594671186898</v>
+        <v>8.329077784333627</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001302101779199357</v>
+        <v>1.332994311877348</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.329077784333627</v>
+        <v>0.009033140561522459</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.332994311877348</v>
+        <v>2.978467768201141</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.009033140561522459</v>
+        <v>0.9471382232500685</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.978467768201141</v>
+        <v>1.82566737806295</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9471382232500685</v>
+        <v>10</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.82566737806295</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1968461946508878</v>
       </c>
     </row>
@@ -9134,72 +8930,66 @@
         <v>2.564298356756457e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.2356316095731445</v>
+        <v>7.842824868386605e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.349141611479712</v>
+        <v>8.223547232362022e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>7.842824868386605e-07</v>
+        <v>0.001558625363529762</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>8.223547232362022e-06</v>
+        <v>0.1298721947766177</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.001558625363529762</v>
+        <v>0.01686787554817596</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1298721947766177</v>
+        <v>1.574287341669593</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.01686787554817596</v>
+        <v>1.613901912834015</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.474614630406419</v>
+        <v>3.522790345863783</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.613901912834015</v>
+        <v>3.711355233323439e-14</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.522790345863783</v>
+        <v>16328480.543513</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>3.711355233323439e-14</v>
+        <v>6.653733433071729e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>16328480.543513</v>
+        <v>9.895188484788358</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>6.653733433071729e-06</v>
+        <v>0.0001186695838307524</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>9.895188484788358</v>
+        <v>7.827749258131898</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001186695838307524</v>
+        <v>1.302219469295967</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>7.827749258131898</v>
+        <v>0.007271319547833717</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.302219469295967</v>
+        <v>3.08832014855567</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.007271319547833717</v>
+        <v>0.9475976247424002</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.08832014855567</v>
+        <v>1.826551076563277</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9475976247424002</v>
+        <v>10</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.826551076563277</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2023102634332026</v>
       </c>
     </row>
@@ -9214,72 +9004,66 @@
         <v>2.56560369196564e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.2345373366455515</v>
+        <v>7.842824868386605e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.348849365108058</v>
+        <v>8.223652913986203e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>7.842824868386605e-07</v>
+        <v>-0.0009901821143464685</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>8.223652913986203e-06</v>
+        <v>0.1314871342927306</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.0009901821143464685</v>
+        <v>0.01728793641690176</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1314871342927306</v>
+        <v>1.556855577230523</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.01728793641690176</v>
+        <v>1.70389141305423</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.456312195868793</v>
+        <v>3.60228154890827</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.70389141305423</v>
+        <v>3.549366228103564e-14</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.60228154890827</v>
+        <v>17113376.67661073</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>3.549366228103564e-14</v>
+        <v>6.318171748253941e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>17113376.67661073</v>
+        <v>10.39494586235161</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>6.318171748253941e-06</v>
+        <v>0.0001139207258136745</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>10.39494586235161</v>
+        <v>7.317510966389701</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001139207258136745</v>
+        <v>1.36730453281689</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>7.317510966389701</v>
+        <v>0.006099995395784042</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.36730453281689</v>
+        <v>3.181331468344374</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.006099995395784042</v>
+        <v>0.946858867662505</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.181331468344374</v>
+        <v>1.839787143035417</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.946858867662505</v>
+        <v>13</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.839787143035417</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.2018987117780528</v>
       </c>
     </row>
@@ -9294,72 +9078,66 @@
         <v>2.557843778874658e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.2392183602186535</v>
+        <v>7.842824868386605e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.347391411586417</v>
+        <v>8.222978298523935e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>7.842824868386605e-07</v>
+        <v>-0.004244585415128952</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>8.222978298523935e-06</v>
+        <v>0.1332010944117804</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.004244585415128952</v>
+        <v>0.01775936851200273</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1332010944117804</v>
+        <v>1.572323018704272</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.01775936851200273</v>
+        <v>1.630966699192586</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.470606392584125</v>
+        <v>3.556116125319344</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.630966699192586</v>
+        <v>3.642120002209358e-14</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.556116125319344</v>
+        <v>16658217.22212488</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>3.642120002209358e-14</v>
+        <v>6.515681830519096e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>16658217.22212488</v>
+        <v>10.10674464270223</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>6.515681830519096e-06</v>
+        <v>0.0001137539679625884</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>10.10674464270223</v>
+        <v>7.749556950145639</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001137539679625884</v>
+        <v>1.347166574395609</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>7.749556950145639</v>
+        <v>0.006831566543558541</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.347166574395609</v>
+        <v>3.088978788426868</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.006831566543558541</v>
+        <v>0.9491185302412292</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.088978788426868</v>
+        <v>1.836444198577999</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9491185302412292</v>
+        <v>12</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.836444198577999</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.2136189072347058</v>
       </c>
     </row>
@@ -9374,72 +9152,66 @@
         <v>2.543120308235554e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.2472009997478735</v>
+        <v>7.842824868386605e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.34329838760394</v>
+        <v>8.221654190930546e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>7.842824868386605e-07</v>
+        <v>-0.005654795106161272</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>8.221654190930546e-06</v>
+        <v>0.1344331263324989</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.005654795106161272</v>
+        <v>0.01810363108599056</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1344331263324989</v>
+        <v>1.573884148983468</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.01810363108599056</v>
+        <v>1.625747424089606</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.47497542035665</v>
+        <v>3.560450087221231</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.625747424089606</v>
+        <v>3.633258649342889e-14</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.560450087221231</v>
+        <v>16723251.25278792</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>3.633258649342889e-14</v>
+        <v>6.513012429641795e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>16723251.25278792</v>
+        <v>10.16103027961289</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>6.513012429641795e-06</v>
+        <v>0.0001175749024683686</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>10.16103027961289</v>
+        <v>7.389624473969927</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001175749024683686</v>
+        <v>1.338519797399886</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>7.389624473969927</v>
+        <v>0.006420359774663778</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.338519797399886</v>
+        <v>3.110324851308144</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.006420359774663778</v>
+        <v>0.9495081211824458</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.110324851308144</v>
+        <v>1.83238979371653</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9495081211824458</v>
+        <v>12</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.83238979371653</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.2076807556967393</v>
       </c>
     </row>
@@ -9454,72 +9226,66 @@
         <v>2.528794408985248e-07</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.2533779935660597</v>
+        <v>7.842824868386605e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-1.336887717795854</v>
+        <v>8.220297956230456e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>7.842824868386605e-07</v>
+        <v>-0.004908823486711548</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>8.220297956230456e-06</v>
+        <v>0.1346767711340658</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.004908823486711548</v>
+        <v>0.01816018818481376</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.1346767711340658</v>
+        <v>1.560276008212818</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.01816018818481376</v>
+        <v>1.653313917848976</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.458796642235196</v>
+        <v>3.591377578525153</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.653313917848976</v>
+        <v>3.570951781976009e-14</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>3.591377578525153</v>
+        <v>16974860.95647657</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>3.570951781976009e-14</v>
+        <v>6.375355482410232e-06</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>16974860.95647657</v>
+        <v>10.2895513111377</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>6.375355482410232e-06</v>
+        <v>0.0001232340949940902</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>10.2895513111377</v>
+        <v>7.493485316941347</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001232340949940902</v>
+        <v>1.355354281839229</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>7.493485316941347</v>
+        <v>0.006919880607543954</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.355354281839229</v>
+        <v>3.057940559694075</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.006919880607543954</v>
+        <v>0.9488214711722248</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>3.057940559694075</v>
+        <v>1.842107187217141</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9488214711722248</v>
+        <v>13</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.842107187217141</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.2054543134736559</v>
       </c>
     </row>
@@ -9534,72 +9300,66 @@
         <v>2.518032504861387e-07</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.2555795474004913</v>
+        <v>7.842824868386605e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-1.328946773247006</v>
+        <v>8.219176178786443e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>7.842824868386605e-07</v>
+        <v>-0.004093154324374982</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>8.219176178786443e-06</v>
+        <v>0.1345271819151016</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.004093154324374982</v>
+        <v>0.01811224818397843</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.1345271819151016</v>
+        <v>1.566045884148209</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.01811224818397843</v>
+        <v>1.581435754126546</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.463828148401773</v>
+        <v>3.740420450341459</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.581435754126546</v>
+        <v>3.292041295364361e-14</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>3.740420450341459</v>
+        <v>18187061.58273182</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>3.292041295364361e-14</v>
+        <v>5.938720942149957e-06</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>18187061.58273182</v>
+        <v>10.88905895309356</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>5.938720942149957e-06</v>
+        <v>0.0001223985477077048</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>10.88905895309356</v>
+        <v>7.490335657543073</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001223985477077048</v>
+        <v>1.30455088728778</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>7.490335657543073</v>
+        <v>0.006867186218304238</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.30455088728778</v>
+        <v>3.075852409480508</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.006867186218304238</v>
+        <v>0.9485205859342245</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.075852409480508</v>
+        <v>1.837236061495227</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9485205859342245</v>
+        <v>13</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.837236061495227</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.2021370615831512</v>
       </c>
     </row>
@@ -9614,72 +9374,66 @@
         <v>2.509816990680582e-07</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.2547344591035686</v>
+        <v>7.842824868386605e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-1.320473962414166</v>
+        <v>8.218203014917316e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>7.842824868386605e-07</v>
+        <v>-0.003731558753695317</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>8.218203014917316e-06</v>
+        <v>0.1346541446658229</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.003731558753695317</v>
+        <v>0.01814440261347426</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.1346541446658229</v>
+        <v>1.60416922818484</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.01814440261347426</v>
+        <v>1.646965642484122</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.502995835710602</v>
+        <v>3.787684100126626</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.646965642484122</v>
+        <v>3.210396092933121e-14</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>3.787684100126626</v>
+        <v>18432637.2059982</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>3.210396092933121e-14</v>
+        <v>5.962631607861418e-06</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>18432637.2059982</v>
+        <v>10.9077096449356</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>5.962631607861418e-06</v>
+        <v>0.0001143213640069141</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>10.9077096449356</v>
+        <v>7.653186309230525</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001143213640069141</v>
+        <v>1.311366575146863</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>7.653186309230525</v>
+        <v>0.006695946412975819</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.311366575146863</v>
+        <v>3.171725543770393</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.006695946412975819</v>
+        <v>0.9492353246039121</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>3.171725543770393</v>
+        <v>1.814125346045328</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9492353246039121</v>
+        <v>13</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.814125346045328</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.2078230831268664</v>
       </c>
     </row>
@@ -9694,72 +9448,66 @@
         <v>2.502947422420955e-07</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.2520508417616113</v>
+        <v>7.842824868386605e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-1.312017619082754</v>
+        <v>8.217288528092787e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>7.842824868386605e-07</v>
+        <v>-0.003677588529345848</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>8.217288528092787e-06</v>
+        <v>0.1349754756455208</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.003677588529345848</v>
+        <v>0.0182314078623834</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.1349754756455208</v>
+        <v>1.615386200350509</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.0182314078623834</v>
+        <v>1.537160828827811</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.512682786544063</v>
+        <v>4.118706874755702</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.537160828827811</v>
+        <v>2.715090753073658e-14</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4.118706874755702</v>
+        <v>21588579.83597779</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>2.715090753073658e-14</v>
+        <v>5.109898177370199e-06</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>21588579.83597779</v>
+        <v>12.65413602885615</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>5.109898177370199e-06</v>
+        <v>0.000102481189383969</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>12.65413602885615</v>
+        <v>8.459394317053464</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.000102481189383969</v>
+        <v>1.372413593629636</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>8.459394317053464</v>
+        <v>0.007333692488549025</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.372413593629636</v>
+        <v>3.145664112425944</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.007333692488549025</v>
+        <v>0.9486890229215407</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>3.145664112425944</v>
+        <v>1.836740345678978</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9486890229215407</v>
+        <v>24</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.836740345678978</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.2384118075358042</v>
       </c>
     </row>
@@ -9774,72 +9522,66 @@
         <v>2.495907093311848e-07</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.2478630104620597</v>
+        <v>7.842824868386605e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-1.302580145243917</v>
+        <v>8.216272637565324e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>7.842824868386605e-07</v>
+        <v>-0.00469692904041511</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>8.216272637565324e-06</v>
+        <v>0.1356413180159339</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.00469692904041511</v>
+        <v>0.0184201904518567</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.1356413180159339</v>
+        <v>1.624590018390165</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.0184201904518567</v>
+        <v>1.696842594142368</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.528296875302182</v>
+        <v>4.518164314090237</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.696842594142368</v>
+        <v>2.256223289454387e-14</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>4.518164314090237</v>
+        <v>25306613.08428862</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>2.256223289454387e-14</v>
+        <v>4.356294341171394e-06</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>25306613.08428862</v>
+        <v>14.44941046114237</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>4.356294341171394e-06</v>
+        <v>0.0001026539197970867</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>14.44941046114237</v>
+        <v>7.196133754140466</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001026539197970867</v>
+        <v>1.781985437798161</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>7.196133754140466</v>
+        <v>0.005315865588526817</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.781985437798161</v>
+        <v>3.375178033723881</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.005315865588526817</v>
+        <v>0.9497251534428974</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>3.375178033723881</v>
+        <v>1.810547296546514</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9497251534428974</v>
+        <v>31</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.810547296546514</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.2270958170393164</v>
       </c>
     </row>
@@ -9854,72 +9596,66 @@
         <v>2.486694271100447e-07</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.2415210601713465</v>
+        <v>7.842824868386605e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-1.28979941869181</v>
+        <v>8.214893310287085e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>7.842824868386605e-07</v>
+        <v>-0.00619999511318234</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>8.214893310287085e-06</v>
+        <v>0.1363342561271632</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.00619999511318234</v>
+        <v>0.01862530664237433</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.1363342561271632</v>
+        <v>1.643815963562969</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.01862530664237433</v>
+        <v>1.605308432571255</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.547377674114529</v>
+        <v>4.505268733452287</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.605308432571255</v>
+        <v>2.269157900606971e-14</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>4.505268733452287</v>
+        <v>24978151.33239773</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>2.269157900606971e-14</v>
+        <v>4.44841559358511e-06</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>24978151.33239773</v>
+        <v>14.15745867258904</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>4.44841559358511e-06</v>
+        <v>0.000106543519339014</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>14.15745867258904</v>
+        <v>6.11488347722499</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.000106543519339014</v>
+        <v>1.658840770848578</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>6.11488347722499</v>
+        <v>0.003983853960032107</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.658840770848578</v>
+        <v>3.314447458384154</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.003983853960032107</v>
+        <v>0.9519671676484428</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>3.314447458384154</v>
+        <v>1.797245487358661</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9519671676484428</v>
+        <v>30</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.797245487358661</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.2236709461109238</v>
       </c>
     </row>
@@ -10296,7 +10032,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.472836638938896</v>
+        <v>1.452635200146746</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.539562316500546</v>
@@ -10385,7 +10121,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.484490934013811</v>
+        <v>1.457844367948559</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.295882599871547</v>
@@ -10474,7 +10210,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.473884692670917</v>
+        <v>1.445720937640686</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.539888708136711</v>
@@ -10563,7 +10299,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.507074867585547</v>
+        <v>1.476508175814186</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.382968830116138</v>
@@ -10652,7 +10388,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.501831808015432</v>
+        <v>1.478880356572609</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.570753617044446</v>
@@ -10741,7 +10477,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.477053042894297</v>
+        <v>1.456604748866398</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.510139546182137</v>
@@ -10830,7 +10566,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.481149540832558</v>
+        <v>1.456202304922154</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.452292107052803</v>
@@ -10919,7 +10655,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.489998545762809</v>
+        <v>1.461645871662553</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.39867825046944</v>
@@ -11008,7 +10744,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.517676184550943</v>
+        <v>1.485159558315303</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.481115777560296</v>
@@ -11097,7 +10833,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.490863525371388</v>
+        <v>1.459625106144333</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.423515322914749</v>
@@ -11186,7 +10922,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.513650657095028</v>
+        <v>1.474355132843814</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.560841309747091</v>
@@ -11275,7 +11011,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.50984090964682</v>
+        <v>1.471412161672875</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.578739035498187</v>
@@ -11364,7 +11100,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.508098388402515</v>
+        <v>1.466037957008282</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.574341766846566</v>
@@ -11453,7 +11189,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.505787805191773</v>
+        <v>1.470207922448103</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.494812614218109</v>
@@ -11542,7 +11278,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.501670598670484</v>
+        <v>1.466792530937755</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.63071063838462</v>
@@ -11631,7 +11367,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.485069308721671</v>
+        <v>1.45283743130167</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.236749491094598</v>
@@ -11720,7 +11456,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.493354294154916</v>
+        <v>1.462778175697248</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.420985246677861</v>
@@ -11809,7 +11545,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.514778101006467</v>
+        <v>1.48463390416791</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.472144558372684</v>
@@ -11898,7 +11634,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.490849804347139</v>
+        <v>1.463929083646145</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.292838506380006</v>
@@ -11987,7 +11723,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.495564892335269</v>
+        <v>1.46404689036277</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.555116966710401</v>
@@ -12076,7 +11812,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.510073330733221</v>
+        <v>1.479269286063049</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.595151774848431</v>
@@ -12165,7 +11901,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.507576901536984</v>
+        <v>1.483659869538766</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.534009968711485</v>
@@ -12254,7 +11990,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.495610426367377</v>
+        <v>1.474687222610378</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.60043572808699</v>
@@ -12343,7 +12079,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.473374828551221</v>
+        <v>1.456199196630949</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.425458217221784</v>
@@ -12432,7 +12168,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.495952709051021</v>
+        <v>1.471187028356254</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.641561749014625</v>
@@ -12521,7 +12257,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.487607524437108</v>
+        <v>1.464578332575453</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.438304095098123</v>
@@ -12610,7 +12346,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.488563441620431</v>
+        <v>1.462510528137971</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.660050163028172</v>
@@ -12699,7 +12435,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.489714670268393</v>
+        <v>1.467857425435487</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.53663871913295</v>
@@ -12788,7 +12524,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.483757258024684</v>
+        <v>1.462317294329686</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.635631422390476</v>
@@ -12877,7 +12613,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.497455058585549</v>
+        <v>1.467178501905333</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.427371769667401</v>
@@ -12966,7 +12702,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.488296255266984</v>
+        <v>1.460121453942909</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.365288177604898</v>
@@ -13055,7 +12791,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.486151890469955</v>
+        <v>1.460951627339092</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.449463208217098</v>
@@ -13144,7 +12880,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.484250850473481</v>
+        <v>1.459997094035812</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.440486622532298</v>
@@ -13233,7 +12969,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.502135235776271</v>
+        <v>1.475101033272576</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.423903548130337</v>
@@ -13322,7 +13058,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.504965654429709</v>
+        <v>1.481013280074861</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.334690927304513</v>
@@ -13411,7 +13147,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.52048757631558</v>
+        <v>1.494716652590286</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.498731787609126</v>
@@ -13500,7 +13236,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.522111686538288</v>
+        <v>1.496931465481852</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.627126209371276</v>
@@ -13589,7 +13325,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.524800926985047</v>
+        <v>1.492535063881252</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.36696819520653</v>
@@ -13678,7 +13414,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.551634912533103</v>
+        <v>1.521175505072096</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.448058366760829</v>
@@ -13767,7 +13503,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.522496196584373</v>
+        <v>1.498453756148213</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.440898138444594</v>
@@ -13856,7 +13592,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.532064682540164</v>
+        <v>1.505150039755795</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.471008629219094</v>
@@ -13945,7 +13681,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.534212645411413</v>
+        <v>1.504411522988649</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.419661406405058</v>
@@ -14034,7 +13770,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.521530149718245</v>
+        <v>1.498053742802099</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.390006193465754</v>
@@ -14123,7 +13859,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.528191173112744</v>
+        <v>1.505546469050421</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.325890055521638</v>
@@ -14212,7 +13948,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.528201922292498</v>
+        <v>1.50415223614995</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.430599836108379</v>
@@ -14301,7 +14037,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.566959753272808</v>
+        <v>1.541526270252328</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.392146823273317</v>
@@ -14390,7 +14126,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.569478998621155</v>
+        <v>1.538010637223291</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.390058863429439</v>
@@ -14479,7 +14215,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.56792392807488</v>
+        <v>1.530298224025262</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.432317781534324</v>
@@ -14568,7 +14304,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.557921501849011</v>
+        <v>1.522960820464773</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.439268170826832</v>
@@ -14657,7 +14393,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.556194593703852</v>
+        <v>1.522213262628805</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.493552629980116</v>
@@ -14746,7 +14482,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.552683980719699</v>
+        <v>1.517482765979674</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.344104450594279</v>
@@ -14835,7 +14571,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.552761375458881</v>
+        <v>1.514435608648597</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.384240261795771</v>
@@ -14924,7 +14660,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.571906740851136</v>
+        <v>1.533873728291504</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.42485552197579</v>
@@ -15013,7 +14749,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.576724880227605</v>
+        <v>1.534752675795326</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.318720169431588</v>
@@ -15102,7 +14838,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.594430896662431</v>
+        <v>1.547776446587441</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.905110628252294</v>
@@ -15191,7 +14927,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.57015210523863</v>
+        <v>1.527598544400091</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.730282642893159</v>
@@ -15280,7 +15016,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.556614352593381</v>
+        <v>1.515850040102845</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.762826523515377</v>
@@ -15369,7 +15105,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.557394433295928</v>
+        <v>1.51551065417483</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.792928775612409</v>
@@ -15458,7 +15194,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.551979340123906</v>
+        <v>1.512221824532871</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.561946955543752</v>
@@ -15547,7 +15283,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.544936986694504</v>
+        <v>1.51312981451109</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.737872325058867</v>
@@ -15636,7 +15372,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.512212720773918</v>
+        <v>1.483863073935555</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.855335070741624</v>
@@ -15725,7 +15461,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.512383033158612</v>
+        <v>1.485794710024666</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.652179853557437</v>
@@ -15814,7 +15550,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.506121751130673</v>
+        <v>1.482390790205405</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.541946268524434</v>
@@ -15903,7 +15639,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.514784206052201</v>
+        <v>1.484751100337432</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.502683814238126</v>
@@ -15992,7 +15728,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.507059884406267</v>
+        <v>1.480777587309296</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.664163606961508</v>
@@ -16081,7 +15817,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.481463752607743</v>
+        <v>1.460694400933942</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.435347934787029</v>
@@ -16170,7 +15906,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.478036973917877</v>
+        <v>1.454641034948225</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.319459114886924</v>
@@ -16259,7 +15995,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.448365190969622</v>
+        <v>1.42387339080733</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.345587510600283</v>
@@ -16348,7 +16084,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.453130028404944</v>
+        <v>1.426807613058691</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.470825218328757</v>
@@ -16437,7 +16173,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.439454185573446</v>
+        <v>1.416267465687449</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.43357915819244</v>
@@ -16526,7 +16262,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.456377740368928</v>
+        <v>1.430710702249969</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.535772074834549</v>
@@ -16615,7 +16351,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.457382488587184</v>
+        <v>1.434165817736851</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.393675146189666</v>
@@ -16704,7 +16440,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.458108427904772</v>
+        <v>1.433848972690465</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.367217670034193</v>
@@ -16793,7 +16529,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.464527265326781</v>
+        <v>1.433904169244693</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.38033631932403</v>
@@ -16882,7 +16618,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.474270715326603</v>
+        <v>1.444074156705217</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.428691331933047</v>
@@ -16971,7 +16707,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.476619636637692</v>
+        <v>1.441125676578589</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.405079733930663</v>
@@ -17060,7 +16796,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.481440732530246</v>
+        <v>1.445835719858378</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.579375757629263</v>
@@ -17149,7 +16885,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.47926764132756</v>
+        <v>1.448129033714317</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.387499114235988</v>
@@ -17238,7 +16974,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.466269318155327</v>
+        <v>1.438133288812486</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.373197175255692</v>
@@ -17327,7 +17063,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.471924505479904</v>
+        <v>1.442074266799269</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.331514657044334</v>
@@ -17416,7 +17152,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.490093600172821</v>
+        <v>1.456226526197051</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.442139515260626</v>
@@ -17505,7 +17241,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.489746100145862</v>
+        <v>1.457436510183626</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.469118645975301</v>
@@ -17594,7 +17330,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.5136959792301</v>
+        <v>1.480866112482714</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.327179586307825</v>
@@ -17683,7 +17419,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.51040658952802</v>
+        <v>1.478768005423585</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.300292326215316</v>
@@ -17772,7 +17508,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.512389988261492</v>
+        <v>1.481449968495205</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.425926103332414</v>
@@ -17861,7 +17597,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.504254329030404</v>
+        <v>1.476947822128908</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.479777933768881</v>
@@ -17950,7 +17686,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.518458245610822</v>
+        <v>1.487782052128999</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.561002015745587</v>
@@ -18236,7 +17972,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.602269384289883</v>
+        <v>1.567457020152509</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.227307282957354</v>
@@ -18325,7 +18061,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.602674277452962</v>
+        <v>1.565409815692256</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.325673159461667</v>
@@ -18414,7 +18150,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.598472845759951</v>
+        <v>1.544461558307364</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.059412915760555</v>
@@ -18503,7 +18239,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.602854688190219</v>
+        <v>1.546858592686501</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.846177191059392</v>
@@ -18592,7 +18328,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.58406614652911</v>
+        <v>1.533196400802072</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.890161350198034</v>
@@ -18681,7 +18417,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.583644708807801</v>
+        <v>1.527853538351764</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.719915477231297</v>
@@ -18770,7 +18506,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.582271078417519</v>
+        <v>1.531193456412809</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.559833598383646</v>
@@ -18859,7 +18595,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.586945176056727</v>
+        <v>1.53975813382174</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.711701454764532</v>
@@ -18948,7 +18684,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.595417176046493</v>
+        <v>1.550718747234156</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.805639317544569</v>
@@ -19037,7 +18773,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.599304377012521</v>
+        <v>1.550934123135062</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.804367515910267</v>
@@ -19126,7 +18862,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.599999175825032</v>
+        <v>1.553471799575453</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.037286530036365</v>
@@ -19215,7 +18951,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.598443753878646</v>
+        <v>1.554904428714189</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.719768476294756</v>
@@ -19304,7 +19040,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.590776076016708</v>
+        <v>1.548058434315</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.808562323942782</v>
@@ -19393,7 +19129,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.595565679199955</v>
+        <v>1.556299899654173</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.95193713359673</v>
@@ -19482,7 +19218,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.601997345547308</v>
+        <v>1.564440798508826</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.978853028550291</v>
@@ -19571,7 +19307,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.60701560325892</v>
+        <v>1.573410124156687</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.096118632993683</v>
@@ -19660,7 +19396,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.611472972313676</v>
+        <v>1.582245105742722</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.823815232838045</v>
@@ -19749,7 +19485,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.613186962827931</v>
+        <v>1.596500159010877</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.985106132304391</v>
@@ -19838,7 +19574,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.617542204533311</v>
+        <v>1.600056644789971</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.81925241568878</v>
@@ -19927,7 +19663,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.617476941964295</v>
+        <v>1.601356166693302</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.094509157044501</v>
@@ -20016,7 +19752,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.595958113087931</v>
+        <v>1.586775700552272</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.955277640883313</v>
@@ -20105,7 +19841,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.595528515513947</v>
+        <v>1.59113108376137</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.841286258431149</v>
@@ -20194,7 +19930,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.576960538335941</v>
+        <v>1.574805669745465</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.898451550156251</v>
@@ -20283,7 +20019,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.56198980355532</v>
+        <v>1.56176337394341</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.794566467932873</v>
@@ -20372,7 +20108,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.541082382945871</v>
+        <v>1.54011472741576</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.529421127972709</v>
@@ -20461,7 +20197,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.53583398060205</v>
+        <v>1.541247435877638</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.803584746670684</v>
@@ -20550,7 +20286,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.53490637578902</v>
+        <v>1.53956165470099</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.574078790504468</v>
@@ -20639,7 +20375,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.531123981204404</v>
+        <v>1.535709367887491</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.756771389842133</v>
@@ -20728,7 +20464,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.538810115174672</v>
+        <v>1.543465889541048</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.763725880657344</v>
@@ -20817,7 +20553,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.540397245743498</v>
+        <v>1.547345649465482</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.790070459663719</v>
@@ -20906,7 +20642,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.54236207420919</v>
+        <v>1.545610383298779</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.659611761799459</v>
@@ -20995,7 +20731,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.532097808881824</v>
+        <v>1.533196598377838</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.776202848356595</v>
@@ -21084,7 +20820,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.532706778531689</v>
+        <v>1.531422958764453</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.774340762805761</v>
@@ -21173,7 +20909,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.536225510462059</v>
+        <v>1.53161180732366</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.613051250607155</v>
@@ -21262,7 +20998,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.536891281704958</v>
+        <v>1.53261228762341</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.810676734502729</v>
@@ -21351,7 +21087,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.559214609994864</v>
+        <v>1.550108116482083</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.895814917987275</v>
@@ -21440,7 +21176,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.565177580615996</v>
+        <v>1.556059245042999</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.526750603046356</v>
@@ -21529,7 +21265,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.567993980608852</v>
+        <v>1.551764540440684</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.633736035981575</v>
@@ -21618,7 +21354,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.581862012295425</v>
+        <v>1.566747349975962</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.482487311016501</v>
@@ -21707,7 +21443,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.611395137441489</v>
+        <v>1.586853024590931</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.658068618556233</v>
@@ -21796,7 +21532,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.616078277537979</v>
+        <v>1.583633160149941</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.746478375489991</v>
@@ -21885,7 +21621,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.616502121890805</v>
+        <v>1.576701106771873</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.178160945221369</v>
@@ -21974,7 +21710,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.607252233941679</v>
+        <v>1.570981797072215</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.918878554572301</v>
@@ -22063,7 +21799,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.591784276738672</v>
+        <v>1.551611344890512</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.066116324535749</v>
@@ -22152,7 +21888,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.587621798304622</v>
+        <v>1.544139459223183</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.081518358736016</v>
@@ -22241,7 +21977,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.585979508514497</v>
+        <v>1.540062663949947</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.881740473256032</v>
@@ -22330,7 +22066,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.589665113031836</v>
+        <v>1.544615290169509</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.067661621654612</v>
@@ -22419,7 +22155,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.577184298570926</v>
+        <v>1.529124232603509</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.055184160354814</v>
@@ -22508,7 +22244,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.57396717790697</v>
+        <v>1.525863083909513</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.162155046298146</v>
@@ -22597,7 +22333,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.566231493805587</v>
+        <v>1.520470766111644</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.953274324708053</v>
@@ -22686,7 +22422,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.570875922722686</v>
+        <v>1.522500615663919</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.001052060126423</v>
@@ -22775,7 +22511,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.558998274619604</v>
+        <v>1.512362244316466</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.894340808759457</v>
@@ -22864,7 +22600,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.553416146838844</v>
+        <v>1.511661073191022</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.916722608966982</v>
@@ -22953,7 +22689,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.546763324066007</v>
+        <v>1.505761717176965</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.092243441425492</v>
@@ -23042,7 +22778,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.54588991367353</v>
+        <v>1.508639823550737</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.069990320910597</v>
@@ -23131,7 +22867,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.539738524611463</v>
+        <v>1.507875899087322</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.977530849604469</v>
@@ -23220,7 +22956,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.551790574719572</v>
+        <v>1.517688722449745</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.728771438040459</v>
@@ -23309,7 +23045,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.555941240828561</v>
+        <v>1.522606117719306</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.836496158842986</v>
@@ -23398,7 +23134,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.551150963972145</v>
+        <v>1.524949802423096</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.91389909588167</v>
@@ -23487,7 +23223,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.546496154385843</v>
+        <v>1.523845573041186</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.912077189672881</v>
@@ -23576,7 +23312,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.544789911481857</v>
+        <v>1.530012242579653</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.956016317159131</v>
@@ -23665,7 +23401,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.539643399824953</v>
+        <v>1.522966499655654</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.793570294966598</v>
@@ -23754,7 +23490,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.532343898009924</v>
+        <v>1.518634522389797</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.927215994235879</v>
@@ -23843,7 +23579,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.528180149002264</v>
+        <v>1.514882878566262</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.664815666778046</v>
@@ -23932,7 +23668,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.534110704377449</v>
+        <v>1.515355106793336</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.930432715429975</v>
@@ -24021,7 +23757,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.529439593513419</v>
+        <v>1.5051186948063</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.896106288481171</v>
@@ -24110,7 +23846,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.53895532686178</v>
+        <v>1.511443065243916</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.685176941490664</v>
@@ -24199,7 +23935,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.551686473402611</v>
+        <v>1.513040086343854</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.80456382095998</v>
@@ -24288,7 +24024,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.548275472425541</v>
+        <v>1.509450032891402</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.918828030661196</v>
@@ -24377,7 +24113,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.535381393364401</v>
+        <v>1.495662476934375</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.853057837200046</v>
@@ -24466,7 +24202,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.53636400306997</v>
+        <v>1.491982504340998</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.664897873262355</v>
@@ -24555,7 +24291,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.529754967888702</v>
+        <v>1.488902645736526</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.840415174668109</v>
@@ -24644,7 +24380,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.534607950044341</v>
+        <v>1.493755830689641</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.73012129470506</v>
@@ -24733,7 +24469,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.541198414919554</v>
+        <v>1.495210910900872</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.758339076152465</v>
@@ -24822,7 +24558,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.536972644525082</v>
+        <v>1.492546124586363</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.912871992416677</v>
@@ -24911,7 +24647,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.532595773832612</v>
+        <v>1.489807474488525</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.899394431129601</v>
@@ -25000,7 +24736,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.547507638686167</v>
+        <v>1.499286398611289</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.860605003642947</v>
@@ -25089,7 +24825,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.549931553512224</v>
+        <v>1.506334716461349</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.832132549413414</v>
@@ -25178,7 +24914,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.552010340197968</v>
+        <v>1.507764985504039</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.004264297584224</v>
@@ -25267,7 +25003,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.545132774330475</v>
+        <v>1.510115263602238</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.858580889113426</v>
@@ -25356,7 +25092,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.528671027993606</v>
+        <v>1.503981428227918</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.643796096296984</v>
@@ -25445,7 +25181,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.524162027336532</v>
+        <v>1.50199853792016</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.727127232218311</v>
@@ -25534,7 +25270,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.537242203116771</v>
+        <v>1.521063473927166</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.829153127383091</v>
@@ -25623,7 +25359,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.542326908415013</v>
+        <v>1.5274324835775</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.675938314054895</v>
@@ -25712,7 +25448,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.554752029656274</v>
+        <v>1.541476980582339</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.70633652708007</v>
@@ -25801,7 +25537,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.551009276595428</v>
+        <v>1.544052906400737</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.76873337211781</v>
@@ -25890,7 +25626,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.547683684676465</v>
+        <v>1.541894314498936</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.837028065934322</v>
@@ -26176,7 +25912,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.581240333377608</v>
+        <v>1.515640025880694</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.109782480184808</v>
@@ -26265,7 +26001,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.591489333959757</v>
+        <v>1.522511286130934</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.71114480892559</v>
@@ -26354,7 +26090,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.592546283804272</v>
+        <v>1.513829771001873</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.801236734469101</v>
@@ -26443,7 +26179,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.611256287886838</v>
+        <v>1.521375439698685</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.718107464407268</v>
@@ -26532,7 +26268,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.600039743978392</v>
+        <v>1.513867405708472</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.03071537062248</v>
@@ -26621,7 +26357,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.594356719457921</v>
+        <v>1.511628888930339</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.091766475864433</v>
@@ -26710,7 +26446,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.597709874381606</v>
+        <v>1.50997639043566</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.916019069109575</v>
@@ -26799,7 +26535,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.592883371016927</v>
+        <v>1.510469529999438</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.860658620060586</v>
@@ -26888,7 +26624,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.592652558323141</v>
+        <v>1.509983352787408</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.146314819594346</v>
@@ -26977,7 +26713,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.589755440024459</v>
+        <v>1.511143420752504</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.852842069707858</v>
@@ -27066,7 +26802,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.601346549383524</v>
+        <v>1.519591155862613</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.456317916350967</v>
@@ -27155,7 +26891,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.605719780628292</v>
+        <v>1.52332631793917</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.9758545658097</v>
@@ -27244,7 +26980,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.604765658062115</v>
+        <v>1.521587788620878</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.618769891915209</v>
@@ -27333,7 +27069,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.615469906994184</v>
+        <v>1.532168631104202</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.322322021793542</v>
@@ -27422,7 +27158,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.613894284692064</v>
+        <v>1.539054784641479</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.159961149050311</v>
@@ -27511,7 +27247,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.608323746653905</v>
+        <v>1.53971797316586</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.039020649194459</v>
@@ -27600,7 +27336,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.611012383401963</v>
+        <v>1.541906079886757</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.439943423255474</v>
@@ -27689,7 +27425,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.614875967598721</v>
+        <v>1.555337371354694</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.143601847700036</v>
@@ -27778,7 +27514,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.607467083863363</v>
+        <v>1.557252866771245</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.059111078045593</v>
@@ -27867,7 +27603,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.61215217102432</v>
+        <v>1.555726793607698</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.026411052733197</v>
@@ -27956,7 +27692,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.619568019498232</v>
+        <v>1.563636548355904</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.939879023907848</v>
@@ -28045,7 +27781,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.610613845373539</v>
+        <v>1.561887654779796</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.168500268484391</v>
@@ -28134,7 +27870,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.609718412264187</v>
+        <v>1.560833526437502</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.245015448694359</v>
@@ -28223,7 +27959,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.603460169560091</v>
+        <v>1.552047364110183</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.193375723345961</v>
@@ -28312,7 +28048,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.608057870930992</v>
+        <v>1.545670439884886</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.037993271859873</v>
@@ -28401,7 +28137,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.598062907061604</v>
+        <v>1.540123958056734</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.102604816845421</v>
@@ -28490,7 +28226,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.596097554378095</v>
+        <v>1.531416364451241</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.733027382674064</v>
@@ -28579,7 +28315,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.596440093299416</v>
+        <v>1.528590311274822</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.942115114169656</v>
@@ -28668,7 +28404,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.582122818101497</v>
+        <v>1.520813554522741</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.663083558414177</v>
@@ -28757,7 +28493,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.582092643287627</v>
+        <v>1.519472994859979</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.833358389334577</v>
@@ -28846,7 +28582,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.573068663014584</v>
+        <v>1.507321270270535</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.875103508197814</v>
@@ -28935,7 +28671,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.564172056284341</v>
+        <v>1.493086092801142</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.069579353670228</v>
@@ -29024,7 +28760,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.561633296980314</v>
+        <v>1.488998132463422</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.899193515079276</v>
@@ -29113,7 +28849,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.563521106191275</v>
+        <v>1.49142188715543</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.609315508740444</v>
@@ -29202,7 +28938,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.571679097082046</v>
+        <v>1.499147468606471</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.010303702237746</v>
@@ -29291,7 +29027,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.57268988334465</v>
+        <v>1.492417430860338</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.99363330593648</v>
@@ -29380,7 +29116,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.579953161013777</v>
+        <v>1.496564644310282</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.677888482727394</v>
@@ -29469,7 +29205,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.570915367613283</v>
+        <v>1.484397494928811</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.905309223531332</v>
@@ -29558,7 +29294,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.58519951645425</v>
+        <v>1.501854560010732</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.135322326646144</v>
@@ -29647,7 +29383,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.573009249165124</v>
+        <v>1.495338364942149</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.077413199719757</v>
@@ -29736,7 +29472,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.574660489350163</v>
+        <v>1.502350760091055</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.96332628431551</v>
@@ -29825,7 +29561,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.571104343849613</v>
+        <v>1.500958904940461</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.282988417169053</v>
@@ -29914,7 +29650,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.567192412750664</v>
+        <v>1.494805541516112</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.157389538170786</v>
@@ -30003,7 +29739,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.566776286394611</v>
+        <v>1.498021566108295</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.965940629180987</v>
@@ -30092,7 +29828,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.567987548381121</v>
+        <v>1.492753453046782</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.220771582098694</v>
@@ -30181,7 +29917,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.588588720780691</v>
+        <v>1.506218008227986</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.28075429821958</v>
@@ -30270,7 +30006,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.587746832333516</v>
+        <v>1.511074062044999</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.014174179752199</v>
@@ -30359,7 +30095,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.584510055721684</v>
+        <v>1.509952855851942</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.259542541105442</v>
@@ -30448,7 +30184,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.590960042461945</v>
+        <v>1.511124680045276</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.131197166637065</v>
@@ -30537,7 +30273,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.575167098396908</v>
+        <v>1.503411875468748</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.158262778793314</v>
@@ -30626,7 +30362,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.575423624082126</v>
+        <v>1.510498148734216</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.015516866665313</v>
@@ -30715,7 +30451,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.578551904605696</v>
+        <v>1.515623023055792</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.018280007552146</v>
@@ -30804,7 +30540,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.591113883965617</v>
+        <v>1.526556419071094</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.085400494023758</v>
@@ -30893,7 +30629,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.579214616883549</v>
+        <v>1.512134915212663</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.473995765868828</v>
@@ -30982,7 +30718,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.576866045633321</v>
+        <v>1.512431853886475</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.820739224631254</v>
@@ -31071,7 +30807,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.569308486946315</v>
+        <v>1.504393334171659</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.578842832195736</v>
@@ -31160,7 +30896,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.572449743283738</v>
+        <v>1.51026287662413</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.627638184793687</v>
@@ -31249,7 +30985,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.577598858754623</v>
+        <v>1.513576053066808</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.624115334372099</v>
@@ -31338,7 +31074,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.583364612537536</v>
+        <v>1.513391541653341</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.659214645485424</v>
@@ -31427,7 +31163,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.568483521681543</v>
+        <v>1.502451447564216</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.805827886868739</v>
@@ -31516,7 +31252,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.556743156522993</v>
+        <v>1.497321009494664</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.742417566473274</v>
@@ -31605,7 +31341,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.559625525491691</v>
+        <v>1.502377618691563</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.61489273455748</v>
@@ -31694,7 +31430,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.568857032508728</v>
+        <v>1.515629819151587</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.673529516187629</v>
@@ -31783,7 +31519,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.562959397082788</v>
+        <v>1.513669240975839</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.440860000302435</v>
@@ -31872,7 +31608,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.560147148343851</v>
+        <v>1.512109257599386</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.796980157710991</v>
@@ -31961,7 +31697,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.547509987506487</v>
+        <v>1.49580158542965</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.698579123117676</v>
@@ -32050,7 +31786,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.533120604368245</v>
+        <v>1.485444751742081</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.66774799908684</v>
@@ -32139,7 +31875,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.52595982573921</v>
+        <v>1.484259061684092</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.593504076947776</v>
@@ -32228,7 +31964,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.537624164127363</v>
+        <v>1.491577636048874</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.898766476523798</v>
@@ -32317,7 +32053,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.532469213862374</v>
+        <v>1.486610210658543</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.932255678476345</v>
@@ -32406,7 +32142,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.541847665873202</v>
+        <v>1.493919362436529</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.726081918963974</v>
@@ -32495,7 +32231,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.537530033359163</v>
+        <v>1.49018643749434</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.907802521210292</v>
@@ -32584,7 +32320,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.535783409004023</v>
+        <v>1.494659999309781</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.912448948967596</v>
@@ -32673,7 +32409,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.528594005205636</v>
+        <v>1.483092693239391</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.77394984307897</v>
@@ -32762,7 +32498,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.542983043171986</v>
+        <v>1.499387753872342</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.933743277624997</v>
@@ -32851,7 +32587,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.551193505019568</v>
+        <v>1.504469163044478</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.993865318709735</v>
@@ -32940,7 +32676,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.552695436771677</v>
+        <v>1.499152977102958</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.077313765747799</v>
@@ -33029,7 +32765,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.55092214338689</v>
+        <v>1.496589404759221</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.022820365243646</v>
@@ -33118,7 +32854,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.545556202259255</v>
+        <v>1.496263682994293</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.949623366555609</v>
@@ -33207,7 +32943,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.555992413696353</v>
+        <v>1.504451125914742</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.787568668794957</v>
@@ -33296,7 +33032,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.558219862403577</v>
+        <v>1.510819053091058</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.706818124892065</v>
@@ -33385,7 +33121,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.570681360092391</v>
+        <v>1.522909727091927</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.211201947444144</v>
@@ -33474,7 +33210,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.573275810084832</v>
+        <v>1.51926016343214</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.88834405571011</v>
@@ -33563,7 +33299,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.569549949969572</v>
+        <v>1.514618403454581</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.667405663282</v>
@@ -33652,7 +33388,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.570346540284781</v>
+        <v>1.517866186226158</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.288054808221944</v>
@@ -33741,7 +33477,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.564217460581767</v>
+        <v>1.510513404665687</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.264292877600108</v>
@@ -33830,7 +33566,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.570325179456138</v>
+        <v>1.512825491209632</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.205091194271308</v>
@@ -34116,7 +33852,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.539981855188423</v>
+        <v>1.4865883446325</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.260428794522173</v>
@@ -34205,7 +33941,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.559318479710938</v>
+        <v>1.500310153985704</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.279060368157479</v>
@@ -34294,7 +34030,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.560900651234367</v>
+        <v>1.496984912755752</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.916634435674526</v>
@@ -34383,7 +34119,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.565069195288634</v>
+        <v>1.499295539196779</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.109774003748076</v>
@@ -34472,7 +34208,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.569776002093386</v>
+        <v>1.506337653210136</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.260392324450051</v>
@@ -34561,7 +34297,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.565328089953903</v>
+        <v>1.503678496445286</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.183027531076711</v>
@@ -34650,7 +34386,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.576668009680456</v>
+        <v>1.514061957493555</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.927198550000963</v>
@@ -34739,7 +34475,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.583815157636414</v>
+        <v>1.515960846523873</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.895172202024145</v>
@@ -34828,7 +34564,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.588387997421135</v>
+        <v>1.526928356385123</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.299992204615734</v>
@@ -34917,7 +34653,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.589902293199136</v>
+        <v>1.528876596967883</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.964300447308098</v>
@@ -35006,7 +34742,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.60182686622136</v>
+        <v>1.536677912175529</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.406041530156165</v>
@@ -35095,7 +34831,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.597065172236451</v>
+        <v>1.529985462984097</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.10200490260545</v>
@@ -35184,7 +34920,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.589002455619698</v>
+        <v>1.523707281829498</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.224598427029821</v>
@@ -35273,7 +35009,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.587464103766833</v>
+        <v>1.53196705460657</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.318353985997523</v>
@@ -35362,7 +35098,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.586246636580142</v>
+        <v>1.539840115821586</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.433169359158958</v>
@@ -35451,7 +35187,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.598328078351793</v>
+        <v>1.552519880200347</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.364253855278322</v>
@@ -35540,7 +35276,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.59706697861058</v>
+        <v>1.551424215979084</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.281166325726743</v>
@@ -35629,7 +35365,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.607554087549318</v>
+        <v>1.566882926205569</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.774532168692029</v>
@@ -35718,7 +35454,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.61307960442413</v>
+        <v>1.578831857875904</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.149553644799046</v>
@@ -35807,7 +35543,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.608104037363589</v>
+        <v>1.570377751515612</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.672776221310644</v>
@@ -35896,7 +35632,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.598307072281236</v>
+        <v>1.565194132367046</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.459438008251751</v>
@@ -35985,7 +35721,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.587856500077515</v>
+        <v>1.560946633474078</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.331749886062566</v>
@@ -36074,7 +35810,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.587226749228021</v>
+        <v>1.556045486306928</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.395205768938107</v>
@@ -36163,7 +35899,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.576868589665989</v>
+        <v>1.542808352211369</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.430959951136671</v>
@@ -36252,7 +35988,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.576761073923236</v>
+        <v>1.538604600609066</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.411168766839871</v>
@@ -36341,7 +36077,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.568270706020585</v>
+        <v>1.528002066017936</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.900937643644058</v>
@@ -36430,7 +36166,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.561889947586666</v>
+        <v>1.519936356013423</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.004816712229431</v>
@@ -36519,7 +36255,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.572918227442656</v>
+        <v>1.532759279598837</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.283120220132239</v>
@@ -36608,7 +36344,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.570129220756771</v>
+        <v>1.526016038918591</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.146100584361637</v>
@@ -36697,7 +36433,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.565562726486086</v>
+        <v>1.521073267931531</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.389050478439394</v>
@@ -36786,7 +36522,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.564892134216358</v>
+        <v>1.520668893119403</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.395914090864861</v>
@@ -36875,7 +36611,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.559723804757396</v>
+        <v>1.514225458699876</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.331974928087355</v>
@@ -36964,7 +36700,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.555454493108395</v>
+        <v>1.504615480031582</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.22282665418752</v>
@@ -37053,7 +36789,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.552237019185412</v>
+        <v>1.498284269894771</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.367563319590722</v>
@@ -37142,7 +36878,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.558875975741979</v>
+        <v>1.503624131237751</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.122271436174975</v>
@@ -37231,7 +36967,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.563617738790265</v>
+        <v>1.509036730133063</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.295315537758331</v>
@@ -37320,7 +37056,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.573009803962137</v>
+        <v>1.509193099273428</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.016784726821506</v>
@@ -37409,7 +37145,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.575933002519349</v>
+        <v>1.508952136835061</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.988487603173184</v>
@@ -37498,7 +37234,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.574507703385522</v>
+        <v>1.506125725948487</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.202613486548234</v>
@@ -37587,7 +37323,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.568407826331777</v>
+        <v>1.502680343211819</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.145118926076986</v>
@@ -37676,7 +37412,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.581324563268057</v>
+        <v>1.514049667361491</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.9447382759158</v>
@@ -37765,7 +37501,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.585561056847459</v>
+        <v>1.513243056501214</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.45334611249781</v>
@@ -37854,7 +37590,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.57861739859591</v>
+        <v>1.509191255134989</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.50939531501326</v>
@@ -37943,7 +37679,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.58733062314997</v>
+        <v>1.512546203363279</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.35146957122994</v>
@@ -38032,7 +37768,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.585256086518803</v>
+        <v>1.508299206970784</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.062470637012118</v>
@@ -38121,7 +37857,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.585943660643275</v>
+        <v>1.502946412458078</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.49378563416838</v>
@@ -38210,7 +37946,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.58764403160086</v>
+        <v>1.506350763871831</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.571825459692381</v>
@@ -38299,7 +38035,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.588374756456373</v>
+        <v>1.511949031449949</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.44642917678167</v>
@@ -38388,7 +38124,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.594096364453741</v>
+        <v>1.511090887350034</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.840548761756816</v>
@@ -38477,7 +38213,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.582730650514232</v>
+        <v>1.505368261222944</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.444440985903748</v>
@@ -38566,7 +38302,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.591380893202306</v>
+        <v>1.508266184721986</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.455075072126622</v>
@@ -38655,7 +38391,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.591258619406141</v>
+        <v>1.514744394467756</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.339631116152586</v>
@@ -38744,7 +38480,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.593539734524308</v>
+        <v>1.519286847511832</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.250570537704617</v>
@@ -38833,7 +38569,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.594329610178358</v>
+        <v>1.523861719135796</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.89719886700109</v>
@@ -38922,7 +38658,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.589781743432719</v>
+        <v>1.52334277399245</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.289400723629217</v>
@@ -39011,7 +38747,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.583966714906861</v>
+        <v>1.515376297757753</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.170718713864638</v>
@@ -39100,7 +38836,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.588276904108322</v>
+        <v>1.523778041188422</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.183497989575595</v>
@@ -39189,7 +38925,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.581355704098309</v>
+        <v>1.524563264821798</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.159332785848778</v>
@@ -39278,7 +39014,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.574749870016977</v>
+        <v>1.521055250519429</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.381900718973268</v>
@@ -39367,7 +39103,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.577516266118686</v>
+        <v>1.523027631140999</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.224890739081248</v>
@@ -39456,7 +39192,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.577131223049909</v>
+        <v>1.52979861702163</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.468382626938937</v>
@@ -39545,7 +39281,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.572793077960298</v>
+        <v>1.523885825630151</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.83394361148063</v>
@@ -39634,7 +39370,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.576920278075272</v>
+        <v>1.531993206045573</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.496710671854149</v>
@@ -39723,7 +39459,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.563367034376413</v>
+        <v>1.522821748086473</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.967723536453397</v>
@@ -39812,7 +39548,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.569038512525899</v>
+        <v>1.521884650865091</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.026256760383608</v>
@@ -39901,7 +39637,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.56890981370028</v>
+        <v>1.516597162537016</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.871421197089851</v>
@@ -39990,7 +39726,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.559468440134614</v>
+        <v>1.506090042382942</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.399240890251661</v>
@@ -40079,7 +39815,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.555792800234233</v>
+        <v>1.504450474654373</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.160018951075531</v>
@@ -40168,7 +39904,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.557806083565649</v>
+        <v>1.505911287462259</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.158284777128145</v>
@@ -40257,7 +39993,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.558284338220928</v>
+        <v>1.502683131985935</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.909763429029211</v>
@@ -40346,7 +40082,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.562251020282059</v>
+        <v>1.509347458337486</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.894601190268624</v>
@@ -40435,7 +40171,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.573318489426075</v>
+        <v>1.517991449661426</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.129837197196933</v>
@@ -40524,7 +40260,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.56427103768102</v>
+        <v>1.506448036452589</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.96661862812219</v>
@@ -40613,7 +40349,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.560168921927375</v>
+        <v>1.504284859531111</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.070613003543431</v>
@@ -40702,7 +40438,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.57074659333276</v>
+        <v>1.515107053696566</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.947722232414447</v>
@@ -40791,7 +40527,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.563984812540655</v>
+        <v>1.507164015830652</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.229874793608184</v>
@@ -40880,7 +40616,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.578631032219559</v>
+        <v>1.523990498752365</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.986795307806867</v>
@@ -40969,7 +40705,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.572981970343418</v>
+        <v>1.513124844420069</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.242588885395203</v>
@@ -41058,7 +40794,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.575866760516863</v>
+        <v>1.520690331782494</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.29725463298705</v>
@@ -41147,7 +40883,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.569954957725351</v>
+        <v>1.522120473260469</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.290237557536473</v>
@@ -41236,7 +40972,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.573490782120281</v>
+        <v>1.532973968379152</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.005912502733605</v>
@@ -41325,7 +41061,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.581036664756911</v>
+        <v>1.53886151804407</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.203579708808751</v>
@@ -41414,7 +41150,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.584486338723693</v>
+        <v>1.538271140646281</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.175561744598936</v>
@@ -41503,7 +41239,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.58337516454471</v>
+        <v>1.531290881982596</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.016035764188497</v>
@@ -41592,7 +41328,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.585551222339294</v>
+        <v>1.53175289555275</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.319323848646348</v>
@@ -41681,7 +41417,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.582370093232748</v>
+        <v>1.529058181977252</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.435969655231176</v>
@@ -41770,7 +41506,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.576187250869696</v>
+        <v>1.522496227824679</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.128935798185088</v>
@@ -42056,7 +41792,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.633343620142397</v>
+        <v>1.628382031112904</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.055625581239659</v>
@@ -42145,7 +41881,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.640338300092238</v>
+        <v>1.630414056362162</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.872556102964422</v>
@@ -42234,7 +41970,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.670703170356858</v>
+        <v>1.643942089561947</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.787409189302354</v>
@@ -42323,7 +42059,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.671989848171572</v>
+        <v>1.641137630083391</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.186489950217644</v>
@@ -42412,7 +42148,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.687420708157002</v>
+        <v>1.658296225911189</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.608336761374851</v>
@@ -42501,7 +42237,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.678215498490658</v>
+        <v>1.652982219202215</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.355359099801611</v>
@@ -42590,7 +42326,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.673542579298138</v>
+        <v>1.64319216729308</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.153706102146987</v>
@@ -42679,7 +42415,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.670705454979432</v>
+        <v>1.639405481298825</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.245853094137979</v>
@@ -42768,7 +42504,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.670311668688682</v>
+        <v>1.640826565559674</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.363160235426785</v>
@@ -42857,7 +42593,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.672245549617317</v>
+        <v>1.643523688919777</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.903516237138092</v>
@@ -42946,7 +42682,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.668208272717128</v>
+        <v>1.643574816300773</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.351301879216148</v>
@@ -43035,7 +42771,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.668635530304808</v>
+        <v>1.642148632011709</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.285002130062314</v>
@@ -43124,7 +42860,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.66842701086238</v>
+        <v>1.648080616718532</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.587497858637476</v>
@@ -43213,7 +42949,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.67485782998681</v>
+        <v>1.657950365722057</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.456339423445648</v>
@@ -43302,7 +43038,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.668767627707174</v>
+        <v>1.650657020101358</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.481675899716612</v>
@@ -43391,7 +43127,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.663208799268455</v>
+        <v>1.646628050880251</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.263755769794162</v>
@@ -43480,7 +43216,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.662806345496937</v>
+        <v>1.6473615877347</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.576215264614108</v>
@@ -43569,7 +43305,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.666929827236595</v>
+        <v>1.658316258938767</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.508500488569867</v>
@@ -43658,7 +43394,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.673964675578077</v>
+        <v>1.663540063229518</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.239885268277272</v>
@@ -43747,7 +43483,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.662974602354865</v>
+        <v>1.645735398087957</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.15618709408798</v>
@@ -43836,7 +43572,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.673770146895939</v>
+        <v>1.644617133976778</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.412820222307848</v>
@@ -43925,7 +43661,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.671014659430832</v>
+        <v>1.650014362671721</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.384933725543565</v>
@@ -44014,7 +43750,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.659594920804174</v>
+        <v>1.633430646689828</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.941625396066883</v>
@@ -44103,7 +43839,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.627900941737029</v>
+        <v>1.611882942514377</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.852714000190113</v>
@@ -44192,7 +43928,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.5988896953667</v>
+        <v>1.578440447895429</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.442297192602011</v>
@@ -44281,7 +44017,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.547973348444126</v>
+        <v>1.544748785418642</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.370211668155856</v>
@@ -44370,7 +44106,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.54164838645698</v>
+        <v>1.533701881693805</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.268050437213546</v>
@@ -44459,7 +44195,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.535842542785379</v>
+        <v>1.527142969641627</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.380861781582509</v>
@@ -44548,7 +44284,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.538860287630201</v>
+        <v>1.528342732961931</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.401154570354781</v>
@@ -44637,7 +44373,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.540852052961995</v>
+        <v>1.528078628221683</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.329085561142431</v>
@@ -44726,7 +44462,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.542431318144309</v>
+        <v>1.530416038257106</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.340616747862927</v>
@@ -44815,7 +44551,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.531877569916379</v>
+        <v>1.524208903303331</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.421693368997601</v>
@@ -44904,7 +44640,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.529002646924976</v>
+        <v>1.520996681094492</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.388153828104318</v>
@@ -44993,7 +44729,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.531772212047592</v>
+        <v>1.528446639842923</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.332073438434115</v>
@@ -45082,7 +44818,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.533196874572431</v>
+        <v>1.533739133308485</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.357774285559867</v>
@@ -45171,7 +44907,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.540048014316037</v>
+        <v>1.541951558290425</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.331097452242716</v>
@@ -45260,7 +44996,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.542590023488935</v>
+        <v>1.544469337900121</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.406564711258455</v>
@@ -45349,7 +45085,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.555547664703683</v>
+        <v>1.556036814108555</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.382967018914735</v>
@@ -45438,7 +45174,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.570482303071939</v>
+        <v>1.573288496050303</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.418859653594957</v>
@@ -45527,7 +45263,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.620019039873202</v>
+        <v>1.612623948496366</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.081682793664376</v>
@@ -45616,7 +45352,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.663616045797968</v>
+        <v>1.649632568682914</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.991861329081495</v>
@@ -45705,7 +45441,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.666110339088497</v>
+        <v>1.651449890249462</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.969034466577781</v>
@@ -45794,7 +45530,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.653992823705916</v>
+        <v>1.642240710209095</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.150591588904247</v>
@@ -45883,7 +45619,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.642376228941189</v>
+        <v>1.628889893318508</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.217931400965925</v>
@@ -45972,7 +45708,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.634894956577162</v>
+        <v>1.617811335555187</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.978929331508601</v>
@@ -46061,7 +45797,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.635366033820003</v>
+        <v>1.619376284313313</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.010791932611892</v>
@@ -46150,7 +45886,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.652482127315105</v>
+        <v>1.627134726499169</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.474628628008398</v>
@@ -46239,7 +45975,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.647968162156789</v>
+        <v>1.620742828901804</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.984791619125368</v>
@@ -46328,7 +46064,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.624794499226092</v>
+        <v>1.599258659809062</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.477417881768892</v>
@@ -46417,7 +46153,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.607633598944973</v>
+        <v>1.585925654923624</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.404183635250882</v>
@@ -46506,7 +46242,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.600659999085909</v>
+        <v>1.582042331836997</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.380164228184271</v>
@@ -46595,7 +46331,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.598388871965069</v>
+        <v>1.581544150667027</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.092811928402128</v>
@@ -46684,7 +46420,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.603468078663133</v>
+        <v>1.578833806975649</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.32958615093651</v>
@@ -46773,7 +46509,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.5912523664067</v>
+        <v>1.570088428971816</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.188027136979807</v>
@@ -46862,7 +46598,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.577335389429946</v>
+        <v>1.556357532182564</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.066748935158024</v>
@@ -46951,7 +46687,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.571378990596759</v>
+        <v>1.552223717156132</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.297219768520761</v>
@@ -47040,7 +46776,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.572504354097931</v>
+        <v>1.552858582035224</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.758692507895633</v>
@@ -47129,7 +46865,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.573629484184695</v>
+        <v>1.552952566202467</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.153783909194913</v>
@@ -47218,7 +46954,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.570887360138737</v>
+        <v>1.551476287672491</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.943950466976776</v>
@@ -47307,7 +47043,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.57061347903914</v>
+        <v>1.554888294332643</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.186663686540177</v>
@@ -47396,7 +47132,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.566029950330874</v>
+        <v>1.547508211036206</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.2041044113882</v>
@@ -47485,7 +47221,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.556923589322663</v>
+        <v>1.534367107633437</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.676141550895662</v>
@@ -47574,7 +47310,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.559705908948484</v>
+        <v>1.533303590549412</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.735911388009889</v>
@@ -47663,7 +47399,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.564348208472179</v>
+        <v>1.537607042030058</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.765634237581482</v>
@@ -47752,7 +47488,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.577244929039974</v>
+        <v>1.539218555571099</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.778739802327853</v>
@@ -47841,7 +47577,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.58824816218808</v>
+        <v>1.544330372145306</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.760483753954889</v>
@@ -47930,7 +47666,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.574612366706168</v>
+        <v>1.534994706307954</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.702543373272962</v>
@@ -48019,7 +47755,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.564175381094411</v>
+        <v>1.528117935194041</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.83857435275205</v>
@@ -48108,7 +47844,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.571807347673208</v>
+        <v>1.530233807300566</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.572155346506253</v>
@@ -48197,7 +47933,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.56601624997106</v>
+        <v>1.520823251488184</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.753598732700481</v>
@@ -48286,7 +48022,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.564957160117865</v>
+        <v>1.517434616145618</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.521299121649225</v>
@@ -48375,7 +48111,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.565884236706006</v>
+        <v>1.520340515639407</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.70295049134665</v>
@@ -48464,7 +48200,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.568002000507155</v>
+        <v>1.519923147806882</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.617096311446687</v>
@@ -48553,7 +48289,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.566378567980473</v>
+        <v>1.517568289690471</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.638041242126598</v>
@@ -48642,7 +48378,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.574299886339271</v>
+        <v>1.526584328130437</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.676515869324943</v>
@@ -48731,7 +48467,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.574973985085921</v>
+        <v>1.531006406437173</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.842369851054205</v>
@@ -48820,7 +48556,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.57769736312217</v>
+        <v>1.537541318512923</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.905440619201946</v>
@@ -48909,7 +48645,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.585923992718743</v>
+        <v>1.546794081163347</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.987088460011184</v>
@@ -48998,7 +48734,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.577378249700053</v>
+        <v>1.538947632243998</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.11151394700197</v>
@@ -49087,7 +48823,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.553818405260262</v>
+        <v>1.525460053906595</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.961148196282886</v>
@@ -49176,7 +48912,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.536251455961462</v>
+        <v>1.519278326775216</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.832362636751352</v>
@@ -49265,7 +49001,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.552558270336446</v>
+        <v>1.529531569606722</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.935718515375779</v>
@@ -49354,7 +49090,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.567942032774917</v>
+        <v>1.545193520643775</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.851659729126819</v>
@@ -49443,7 +49179,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.575861823549195</v>
+        <v>1.55533048436764</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.896579505854956</v>
@@ -49532,7 +49268,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.574459376943298</v>
+        <v>1.563469110580079</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.938079973385813</v>
@@ -49621,7 +49357,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.572087089720078</v>
+        <v>1.564725262089607</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.076258147476906</v>
@@ -49710,7 +49446,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.571614979637945</v>
+        <v>1.559741032506426</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.04626382052803</v>
@@ -49996,7 +49732,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.412013228923294</v>
+        <v>1.387755832046099</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.187155246899809</v>
@@ -50085,7 +49821,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.412862741797182</v>
+        <v>1.390258759356431</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.099395189713359</v>
@@ -50174,7 +49910,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.396383958017563</v>
+        <v>1.378339878257794</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.342437698453806</v>
@@ -50263,7 +49999,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.427810840556045</v>
+        <v>1.407142797998625</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.292672712716031</v>
@@ -50352,7 +50088,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.427555121974706</v>
+        <v>1.410721535530606</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.349566559226367</v>
@@ -50441,7 +50177,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.405064925051183</v>
+        <v>1.386242445283639</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.388749174495643</v>
@@ -50530,7 +50266,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.409187099634479</v>
+        <v>1.381118759931748</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.342144545720103</v>
@@ -50619,7 +50355,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.411675339515353</v>
+        <v>1.387215420860457</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.234138855464351</v>
@@ -50708,7 +50444,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.436454700152922</v>
+        <v>1.409369526761864</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.336781948277689</v>
@@ -50797,7 +50533,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.415187298343836</v>
+        <v>1.388020654936674</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.186265938059267</v>
@@ -50886,7 +50622,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.453015072998096</v>
+        <v>1.421029668038818</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.288507278699556</v>
@@ -50975,7 +50711,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.453291985479061</v>
+        <v>1.419101739501113</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.298463584255069</v>
@@ -51064,7 +50800,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.450386320805549</v>
+        <v>1.41696849589231</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.314599736314722</v>
@@ -51153,7 +50889,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.45045449119557</v>
+        <v>1.417932353593079</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.271631563410218</v>
@@ -51242,7 +50978,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.442617583585662</v>
+        <v>1.41475751115392</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.244565336744361</v>
@@ -51331,7 +51067,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.424561643448805</v>
+        <v>1.398544205350374</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.028372624795109</v>
@@ -51420,7 +51156,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.448677106766061</v>
+        <v>1.419450409569956</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.248665600763464</v>
@@ -51509,7 +51245,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.486287534654099</v>
+        <v>1.453181501985995</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.277176279097968</v>
@@ -51598,7 +51334,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.470152601182843</v>
+        <v>1.438373194526479</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.130301233027655</v>
@@ -51687,7 +51423,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.47097976743622</v>
+        <v>1.436926557975686</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.359256799194336</v>
@@ -51776,7 +51512,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.4990355575616</v>
+        <v>1.461312979992448</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.333688669521121</v>
@@ -51865,7 +51601,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.491768604388434</v>
+        <v>1.463807495232935</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.215119098082687</v>
@@ -51954,7 +51690,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.49277671481525</v>
+        <v>1.45714074695883</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.243471904275068</v>
@@ -52043,7 +51779,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.456947298872697</v>
+        <v>1.426774710314568</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.351806738968664</v>
@@ -52132,7 +51868,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.476339491198615</v>
+        <v>1.442604597198134</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.334861204772535</v>
@@ -52221,7 +51957,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.465725645288324</v>
+        <v>1.43249241409349</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.35618962176624</v>
@@ -52310,7 +52046,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.455551248544874</v>
+        <v>1.425053011380377</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.307906231643125</v>
@@ -52399,7 +52135,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.465227987424209</v>
+        <v>1.437065736865116</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.386315123055769</v>
@@ -52488,7 +52224,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.470954817827731</v>
+        <v>1.441750120249624</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.431008435182013</v>
@@ -52577,7 +52313,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.487262618908929</v>
+        <v>1.450015780539288</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.29782294266815</v>
@@ -52666,7 +52402,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.478072512370745</v>
+        <v>1.443566700350883</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.389401619831849</v>
@@ -52755,7 +52491,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.472384199626756</v>
+        <v>1.440260340863981</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.400219290670531</v>
@@ -52844,7 +52580,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.45772463494141</v>
+        <v>1.420931546606176</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.343920399424213</v>
@@ -52933,7 +52669,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.47978622506656</v>
+        <v>1.437941604119642</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.266027729506192</v>
@@ -53022,7 +52758,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.47749280963232</v>
+        <v>1.439446114187058</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.258834599217396</v>
@@ -53111,7 +52847,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.48305846455217</v>
+        <v>1.443878655654504</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.291025642297533</v>
@@ -53200,7 +52936,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.492538986740617</v>
+        <v>1.453094705644701</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.357379557087015</v>
@@ -53289,7 +53025,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.490471890754406</v>
+        <v>1.447474329982138</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.282393826844971</v>
@@ -53378,7 +53114,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.518354532514028</v>
+        <v>1.479957785859463</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.230633035523469</v>
@@ -53467,7 +53203,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.456859433514888</v>
+        <v>1.424061211615854</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.939002603403329</v>
@@ -53556,7 +53292,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.464398107393565</v>
+        <v>1.431953717328922</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.027124188080952</v>
@@ -53645,7 +53381,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.472731613456075</v>
+        <v>1.436793422690612</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.026802929364693</v>
@@ -53734,7 +53470,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.46610283368195</v>
+        <v>1.432592995564695</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.014247304851497</v>
@@ -53823,7 +53559,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.469026462843834</v>
+        <v>1.433685597302366</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.010888745611632</v>
@@ -53912,7 +53648,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.474800099417175</v>
+        <v>1.439210984530857</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.02873582333882</v>
@@ -54001,7 +53737,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.509622335176433</v>
+        <v>1.468730454124315</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.97738536171782</v>
@@ -54090,7 +53826,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.515908178756222</v>
+        <v>1.4686112307582</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.006837721010444</v>
@@ -54179,7 +53915,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.530359366001707</v>
+        <v>1.483517374987433</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.992717983707304</v>
@@ -54268,7 +54004,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.512196331522578</v>
+        <v>1.468587567103778</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.007866031335978</v>
@@ -54357,7 +54093,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.509601953450874</v>
+        <v>1.466716049331787</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.049783225897175</v>
@@ -54446,7 +54182,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.511316831191403</v>
+        <v>1.468616155504744</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.031276617549737</v>
@@ -54535,7 +54271,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.511223611407195</v>
+        <v>1.469167005064194</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.028184313255808</v>
@@ -54624,7 +54360,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.524996665503625</v>
+        <v>1.481720108380111</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.031298137729566</v>
@@ -54713,7 +54449,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.550811638332314</v>
+        <v>1.494203031550549</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.077346562610241</v>
@@ -54802,7 +54538,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.62318958164889</v>
+        <v>1.558782030029632</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.39925164335268</v>
@@ -54891,7 +54627,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.582175438482146</v>
+        <v>1.526354387927336</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.545054889553334</v>
@@ -54980,7 +54716,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.557584451304967</v>
+        <v>1.500090534239608</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.665076197120828</v>
@@ -55069,7 +54805,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.549395233683868</v>
+        <v>1.498543309248083</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.509770835439828</v>
@@ -55158,7 +54894,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.535105994358066</v>
+        <v>1.488791191628958</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.436425348344917</v>
@@ -55247,7 +54983,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.532509471810815</v>
+        <v>1.488973239471191</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.398533453023515</v>
@@ -55336,7 +55072,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.497277655840038</v>
+        <v>1.46207043974769</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.543693842960507</v>
@@ -55425,7 +55161,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.492822817026004</v>
+        <v>1.457871191817028</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.396348957826626</v>
@@ -55514,7 +55250,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.501100650491536</v>
+        <v>1.471046337596613</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.45604520607906</v>
@@ -55603,7 +55339,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.515951459214338</v>
+        <v>1.488145764912792</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.377536132306545</v>
@@ -55692,7 +55428,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.508368154622465</v>
+        <v>1.483687463091867</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.546690356809666</v>
@@ -55781,7 +55517,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.476808985811962</v>
+        <v>1.456002949747401</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.209746333039553</v>
@@ -55870,7 +55606,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.46428746155523</v>
+        <v>1.439944618117073</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.270182141326607</v>
@@ -55959,7 +55695,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.429196099169897</v>
+        <v>1.410720272621146</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.214630920003964</v>
@@ -56048,7 +55784,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.426918087944653</v>
+        <v>1.408986232264013</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.254589530546178</v>
@@ -56137,7 +55873,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.422706120441851</v>
+        <v>1.404478002169475</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.303753840674681</v>
@@ -56226,7 +55962,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.444319578147468</v>
+        <v>1.421423477259727</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.243455039732602</v>
@@ -56315,7 +56051,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.463182930144181</v>
+        <v>1.44159194526627</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.214746167830516</v>
@@ -56404,7 +56140,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.458451525403943</v>
+        <v>1.431784812435223</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.193391322806348</v>
@@ -56493,7 +56229,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.460626780035035</v>
+        <v>1.432295400731468</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.21614415465992</v>
@@ -56582,7 +56318,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.472953644212364</v>
+        <v>1.445859444748713</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.214829047508275</v>
@@ -56671,7 +56407,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.480636426772799</v>
+        <v>1.449686497142281</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.199374959156325</v>
@@ -56760,7 +56496,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.481029426823173</v>
+        <v>1.451916158252294</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.285610343142107</v>
@@ -56849,7 +56585,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.468015925881212</v>
+        <v>1.437206825536738</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.12067621604358</v>
@@ -56938,7 +56674,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.436221786012618</v>
+        <v>1.412565999628265</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.170047478783716</v>
@@ -57027,7 +56763,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.44596627813245</v>
+        <v>1.41941726838957</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.116234080199539</v>
@@ -57116,7 +56852,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.468543733920707</v>
+        <v>1.440891969708841</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.179374947597537</v>
@@ -57205,7 +56941,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.480507018099437</v>
+        <v>1.452480570359315</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.186421531310537</v>
@@ -57294,7 +57030,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.523973292456164</v>
+        <v>1.488628791874969</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.257783281605067</v>
@@ -57383,7 +57119,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.520481566902183</v>
+        <v>1.485952737352553</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.337664498538</v>
@@ -57472,7 +57208,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.519441330456756</v>
+        <v>1.48223234548172</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.406988580100018</v>
@@ -57561,7 +57297,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.514008621297618</v>
+        <v>1.483668378991681</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.28696145509996</v>
@@ -57650,7 +57386,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.52251215296245</v>
+        <v>1.490447746055923</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.42207166497122</v>
